--- a/teaching/traditional_assets/database/data/brazil/brazil_retail_online.xlsx
+++ b/teaching/traditional_assets/database/data/brazil/brazil_retail_online.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bovespa_btow3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0253</v>
+        <v>0.006</v>
       </c>
       <c r="G2">
-        <v>0.05919003115264798</v>
+        <v>0.05837104072398189</v>
       </c>
       <c r="H2">
-        <v>0.00778816199376947</v>
+        <v>0.02253882842118136</v>
       </c>
       <c r="I2">
-        <v>0.005330002731749846</v>
+        <v>0.02396234155295401</v>
       </c>
       <c r="J2">
-        <v>0.005330002731749846</v>
+        <v>0.02396234155295401</v>
       </c>
       <c r="K2">
-        <v>-104.9</v>
+        <v>-35.67</v>
       </c>
       <c r="L2">
-        <v>-0.0680815160955348</v>
+        <v>-0.02181117769353063</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1082</v>
+        <v>892.5999999999999</v>
       </c>
       <c r="V2">
-        <v>0.1321801167876078</v>
-      </c>
-      <c r="W2">
-        <v>-0.1166462804403425</v>
+        <v>0.1034562692691068</v>
       </c>
       <c r="X2">
-        <v>0.1362873592726538</v>
-      </c>
-      <c r="Y2">
-        <v>-0.2529336397129963</v>
+        <v>0.1132690853084834</v>
       </c>
       <c r="Z2">
-        <v>0.8132854961828573</v>
-      </c>
-      <c r="AA2">
-        <v>0.004334813916347159</v>
+        <v>0.7778507329611476</v>
       </c>
       <c r="AB2">
-        <v>0.1169374645199205</v>
-      </c>
-      <c r="AC2">
-        <v>-0.1126026506035733</v>
+        <v>0.1092752366791645</v>
       </c>
       <c r="AD2">
-        <v>1963</v>
+        <v>942.86</v>
       </c>
       <c r="AE2">
-        <v>73.23765895459918</v>
+        <v>1.259933121495054</v>
       </c>
       <c r="AF2">
-        <v>2036.237658954599</v>
+        <v>944.119933121495</v>
       </c>
       <c r="AG2">
-        <v>954.2376589545993</v>
+        <v>51.51993312149511</v>
       </c>
       <c r="AH2">
-        <v>0.1992007588791102</v>
+        <v>0.09863433247645317</v>
       </c>
       <c r="AI2">
-        <v>0.600795182826651</v>
+        <v>0.3556918370466384</v>
       </c>
       <c r="AJ2">
-        <v>0.1044019395280852</v>
+        <v>0.005935941239461386</v>
       </c>
       <c r="AK2">
-        <v>0.4135844676646622</v>
+        <v>0.02924411091279972</v>
       </c>
       <c r="AL2">
-        <v>215.3</v>
+        <v>153.636</v>
       </c>
       <c r="AM2">
-        <v>151.2</v>
+        <v>71.58000000000001</v>
       </c>
       <c r="AN2">
-        <v>46.40661938534279</v>
+        <v>16.6465395480226</v>
       </c>
       <c r="AO2">
-        <v>-0.01644217371110079</v>
+        <v>0.2479887526361009</v>
       </c>
       <c r="AP2">
-        <v>22.55880990436405</v>
+        <v>0.9096033390094477</v>
       </c>
       <c r="AQ2">
-        <v>-0.02341269841269841</v>
+        <v>0.5322715842414082</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +709,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0253</v>
+        <v>0.006</v>
       </c>
       <c r="G3">
-        <v>0.05919003115264798</v>
+        <v>0.06190710853763706</v>
       </c>
       <c r="H3">
-        <v>0.00778816199376947</v>
+        <v>0.02581002833559197</v>
       </c>
       <c r="I3">
-        <v>0.005330002731749846</v>
+        <v>0.02666503226296723</v>
       </c>
       <c r="J3">
-        <v>0.005330002731749846</v>
+        <v>0.02666503226296723</v>
       </c>
       <c r="K3">
-        <v>-104.9</v>
+        <v>-31.2</v>
       </c>
       <c r="L3">
-        <v>-0.0680815160955348</v>
+        <v>-0.01921892324750523</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +751,8901 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1082</v>
+        <v>882.3</v>
       </c>
       <c r="V3">
-        <v>0.1321801167876078</v>
+        <v>0.1082855705151021</v>
       </c>
       <c r="W3">
-        <v>-0.1166462804403425</v>
+        <v>-0.02305986696230599</v>
       </c>
       <c r="X3">
-        <v>0.1362873592726538</v>
+        <v>0.1169959127775299</v>
       </c>
       <c r="Y3">
-        <v>-0.2529336397129963</v>
+        <v>-0.1400557797398359</v>
       </c>
       <c r="Z3">
-        <v>0.8132854961828573</v>
+        <v>0.7721431331106317</v>
       </c>
       <c r="AA3">
-        <v>0.004334813916347159</v>
+        <v>0.02058922155602359</v>
       </c>
       <c r="AB3">
-        <v>0.1169374645199205</v>
+        <v>0.1092123410972861</v>
       </c>
       <c r="AC3">
-        <v>-0.1126026506035733</v>
+        <v>-0.08862311954126252</v>
       </c>
       <c r="AD3">
-        <v>1963</v>
+        <v>941.5</v>
       </c>
       <c r="AE3">
-        <v>73.23765895459918</v>
+        <v>1.259933121495054</v>
       </c>
       <c r="AF3">
-        <v>2036.237658954599</v>
+        <v>942.759933121495</v>
       </c>
       <c r="AG3">
-        <v>954.2376589545993</v>
+        <v>60.45993312149506</v>
       </c>
       <c r="AH3">
-        <v>0.1992007588791102</v>
+        <v>0.1037064349626129</v>
       </c>
       <c r="AI3">
-        <v>0.600795182826651</v>
+        <v>0.3571114550995376</v>
       </c>
       <c r="AJ3">
-        <v>0.1044019395280852</v>
+        <v>0.007365653262539525</v>
       </c>
       <c r="AK3">
-        <v>0.4135844676646622</v>
+        <v>0.03439796969947535</v>
       </c>
       <c r="AL3">
-        <v>215.3</v>
+        <v>153.3</v>
       </c>
       <c r="AM3">
-        <v>151.2</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="AN3">
-        <v>46.40661938534279</v>
+        <v>15.37393860222077</v>
       </c>
       <c r="AO3">
-        <v>-0.01644217371110079</v>
+        <v>0.2752772341813438</v>
       </c>
       <c r="AP3">
-        <v>22.55880990436405</v>
+        <v>0.9872621345769931</v>
       </c>
       <c r="AQ3">
-        <v>-0.02341269841269841</v>
+        <v>0.5910364145658263</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Enjoei.com.br Atividades de Internet S.A. (BOVESPA:ENJU3)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Retail (Online)</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-0.42</v>
+      </c>
+      <c r="H4">
+        <v>-0.42</v>
+      </c>
+      <c r="I4">
+        <v>-0.3416666666666666</v>
+      </c>
+      <c r="J4">
+        <v>-0.3416666666666666</v>
+      </c>
+      <c r="K4">
+        <v>-4.47</v>
+      </c>
+      <c r="L4">
+        <v>-0.3725</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>10.3</v>
+      </c>
+      <c r="V4">
+        <v>0.02146280475098979</v>
+      </c>
+      <c r="X4">
+        <v>0.1095422578394369</v>
+      </c>
+      <c r="AB4">
+        <v>0.1093381322610428</v>
+      </c>
+      <c r="AD4">
+        <v>1.36</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1.36</v>
+      </c>
+      <c r="AG4">
+        <v>-8.940000000000001</v>
+      </c>
+      <c r="AH4">
+        <v>0.002825915305655987</v>
+      </c>
+      <c r="AI4">
+        <v>0.09470752089136492</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.01898250382198064</v>
+      </c>
+      <c r="AK4">
+        <v>-2.201970443349755</v>
+      </c>
+      <c r="AL4">
+        <v>0.336</v>
+      </c>
+      <c r="AM4">
+        <v>0.18</v>
+      </c>
+      <c r="AN4">
+        <v>-0.2956521739130435</v>
+      </c>
+      <c r="AO4">
+        <v>-12.20238095238095</v>
+      </c>
+      <c r="AP4">
+        <v>1.943478260869566</v>
+      </c>
+      <c r="AQ4">
+        <v>-22.77777777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B2W - Companhia Digital (BOVESPA:BTOW3)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BOVESPA:BTOW3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retail (Online)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.103706434962613</v>
+      </c>
+      <c r="F2">
+        <v>0.03</v>
+      </c>
+      <c r="G2">
+        <v>8147.9</v>
+      </c>
+      <c r="H2">
+        <v>8833.05554283217</v>
+      </c>
+      <c r="I2">
+        <v>8208.359933121499</v>
+      </c>
+      <c r="J2">
+        <v>8223.475340825809</v>
+      </c>
+      <c r="K2">
+        <v>942.759933121495</v>
+      </c>
+      <c r="L2">
+        <v>272.719797993645</v>
+      </c>
+      <c r="M2">
+        <v>0.109212341097286</v>
+      </c>
+      <c r="N2">
+        <v>0.109028694195242</v>
+      </c>
+      <c r="O2">
+        <v>0.0419420197086008</v>
+      </c>
+      <c r="P2">
+        <v>0.0324380197086008</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.11699591277753</v>
+      </c>
+      <c r="T2">
+        <v>0.111397477942252</v>
+      </c>
+      <c r="U2">
+        <v>1.41156984675963</v>
+      </c>
+      <c r="V2">
+        <v>1.3381911864306</v>
+      </c>
+      <c r="W2">
+        <v>3.24833910488921</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0.02654851471000126</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>8147.9</v>
+      </c>
+      <c r="AB2">
+        <v>0.07629513553633499</v>
+      </c>
+      <c r="AC2">
+        <v>0.06354851471000127</v>
+      </c>
+      <c r="AD2">
+        <v>0.34</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>61.24</v>
+      </c>
+      <c r="AH2">
+        <v>17.7</v>
+      </c>
+      <c r="AI2">
+        <v>32.60999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>942.759933121495</v>
+      </c>
+      <c r="AK2">
+        <v>941.5</v>
+      </c>
+      <c r="AL2">
+        <v>153.3</v>
+      </c>
+      <c r="AM2">
+        <v>941.4999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>882.3</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.109355115784991</v>
+      </c>
+      <c r="C2">
+        <v>9078.946928575691</v>
+      </c>
+      <c r="D2">
+        <v>8196.646928575692</v>
+      </c>
+      <c r="E2">
+        <v>-942.759933121495</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>882.3</v>
+      </c>
+      <c r="H2">
+        <v>8147.9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>61.24</v>
+      </c>
+      <c r="K2">
+        <v>17.7</v>
+      </c>
+      <c r="L2">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="O2">
+        <v>14.8036</v>
+      </c>
+      <c r="P2">
+        <v>28.7364</v>
+      </c>
+      <c r="Q2">
+        <v>46.4364</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.109355115784991</v>
+      </c>
+      <c r="T2">
+        <v>1.311421954776402</v>
+      </c>
+      <c r="U2">
+        <v>0.04274851471000127</v>
+      </c>
+      <c r="V2">
+        <v>0.34</v>
+      </c>
+      <c r="W2">
+        <v>0.02821401970860083</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.109204068588408</v>
+      </c>
+      <c r="C3">
+        <v>9000.433023130074</v>
+      </c>
+      <c r="D3">
+        <v>8209.039622461289</v>
+      </c>
+      <c r="E3">
+        <v>-851.8533337902801</v>
+      </c>
+      <c r="F3">
+        <v>90.90659933121495</v>
+      </c>
+      <c r="G3">
+        <v>882.3</v>
+      </c>
+      <c r="H3">
+        <v>8147.9</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>61.24</v>
+      </c>
+      <c r="K3">
+        <v>17.7</v>
+      </c>
+      <c r="L3">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M3">
+        <v>3.886122098746634</v>
+      </c>
+      <c r="N3">
+        <v>39.65387790125337</v>
+      </c>
+      <c r="O3">
+        <v>13.48231848642615</v>
+      </c>
+      <c r="P3">
+        <v>26.17155941482723</v>
+      </c>
+      <c r="Q3">
+        <v>43.87155941482722</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.1100221498902242</v>
+      </c>
+      <c r="T3">
+        <v>1.320164767808244</v>
+      </c>
+      <c r="U3">
+        <v>0.04274851471000127</v>
+      </c>
+      <c r="V3">
+        <v>0.34</v>
+      </c>
+      <c r="W3">
+        <v>0.02821401970860083</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>11.20397118094737</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.109117701391825</v>
+      </c>
+      <c r="C4">
+        <v>8916.629289612682</v>
+      </c>
+      <c r="D4">
+        <v>8216.142488275113</v>
+      </c>
+      <c r="E4">
+        <v>-760.9467344590651</v>
+      </c>
+      <c r="F4">
+        <v>181.8131986624299</v>
+      </c>
+      <c r="G4">
+        <v>882.3</v>
+      </c>
+      <c r="H4">
+        <v>8147.9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>61.24</v>
+      </c>
+      <c r="K4">
+        <v>17.7</v>
+      </c>
+      <c r="L4">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M4">
+        <v>8.663128870939174</v>
+      </c>
+      <c r="N4">
+        <v>34.87687112906083</v>
+      </c>
+      <c r="O4">
+        <v>11.85813618388068</v>
+      </c>
+      <c r="P4">
+        <v>23.01873494518015</v>
+      </c>
+      <c r="Q4">
+        <v>40.71873494518015</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1107027969363806</v>
+      </c>
+      <c r="T4">
+        <v>1.329086005595839</v>
+      </c>
+      <c r="U4">
+        <v>0.04764851471000127</v>
+      </c>
+      <c r="V4">
+        <v>0.34</v>
+      </c>
+      <c r="W4">
+        <v>0.03144801970860083</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>5.025897761495474</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.1090286941952421</v>
+      </c>
+      <c r="C5">
+        <v>8833.055542832166</v>
+      </c>
+      <c r="D5">
+        <v>8223.475340825811</v>
+      </c>
+      <c r="E5">
+        <v>-670.0401351278501</v>
+      </c>
+      <c r="F5">
+        <v>272.7197979936448</v>
+      </c>
+      <c r="G5">
+        <v>882.3</v>
+      </c>
+      <c r="H5">
+        <v>8147.9</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>61.24</v>
+      </c>
+      <c r="K5">
+        <v>17.7</v>
+      </c>
+      <c r="L5">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M5">
+        <v>13.40377300339923</v>
+      </c>
+      <c r="N5">
+        <v>30.13622699660078</v>
+      </c>
+      <c r="O5">
+        <v>10.24631717884427</v>
+      </c>
+      <c r="P5">
+        <v>19.88990981775651</v>
+      </c>
+      <c r="Q5">
+        <v>37.58990981775651</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1113974779422516</v>
+      </c>
+      <c r="T5">
+        <v>1.338191186430601</v>
+      </c>
+      <c r="U5">
+        <v>0.04914851471000127</v>
+      </c>
+      <c r="V5">
+        <v>0.34</v>
+      </c>
+      <c r="W5">
+        <v>0.03243801970860084</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>3.24833910488921</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1101369269986591</v>
+      </c>
+      <c r="C6">
+        <v>8651.77009715912</v>
+      </c>
+      <c r="D6">
+        <v>8133.096494483981</v>
+      </c>
+      <c r="E6">
+        <v>-579.1335357966352</v>
+      </c>
+      <c r="F6">
+        <v>363.6263973248598</v>
+      </c>
+      <c r="G6">
+        <v>882.3</v>
+      </c>
+      <c r="H6">
+        <v>8147.9</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>61.24</v>
+      </c>
+      <c r="K6">
+        <v>17.7</v>
+      </c>
+      <c r="L6">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M6">
+        <v>34.63487425454168</v>
+      </c>
+      <c r="N6">
+        <v>8.905125745458328</v>
+      </c>
+      <c r="O6">
+        <v>3.027742753455832</v>
+      </c>
+      <c r="P6">
+        <v>5.877382992002496</v>
+      </c>
+      <c r="Q6">
+        <v>23.57738299200249</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1121066314690782</v>
+      </c>
+      <c r="T6">
+        <v>1.347486058532753</v>
+      </c>
+      <c r="U6">
+        <v>0.09524851471000127</v>
+      </c>
+      <c r="V6">
+        <v>0.34</v>
+      </c>
+      <c r="W6">
+        <v>0.06286401970860084</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>B3/B-</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>1.257114424034341</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.1128370676817357</v>
+      </c>
+      <c r="C7">
+        <v>8348.76067112193</v>
+      </c>
+      <c r="D7">
+        <v>7920.993667778006</v>
+      </c>
+      <c r="E7">
+        <v>-488.2269364654202</v>
+      </c>
+      <c r="F7">
+        <v>454.5329966560748</v>
+      </c>
+      <c r="G7">
+        <v>882.3</v>
+      </c>
+      <c r="H7">
+        <v>8147.9</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>61.24</v>
+      </c>
+      <c r="K7">
+        <v>17.7</v>
+      </c>
+      <c r="L7">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M7">
+        <v>61.61127258341691</v>
+      </c>
+      <c r="N7">
+        <v>-18.0712725834169</v>
+      </c>
+      <c r="O7">
+        <v>-6.144232678361746</v>
+      </c>
+      <c r="P7">
+        <v>-11.92703990505515</v>
+      </c>
+      <c r="Q7">
+        <v>5.772960094944843</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1133558763973566</v>
+      </c>
+      <c r="T7">
+        <v>1.363859906216443</v>
+      </c>
+      <c r="U7">
+        <v>0.1355485147100013</v>
+      </c>
+      <c r="V7">
+        <v>0.240274212482092</v>
+      </c>
+      <c r="W7">
+        <v>0.1029797020849384</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>0.7066888602414469</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1161964629945382</v>
+      </c>
+      <c r="C8">
+        <v>8008.923955163459</v>
+      </c>
+      <c r="D8">
+        <v>7672.06355115075</v>
+      </c>
+      <c r="E8">
+        <v>-397.3203371342054</v>
+      </c>
+      <c r="F8">
+        <v>545.4395959872896</v>
+      </c>
+      <c r="G8">
+        <v>882.3</v>
+      </c>
+      <c r="H8">
+        <v>8147.9</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>61.24</v>
+      </c>
+      <c r="K8">
+        <v>17.7</v>
+      </c>
+      <c r="L8">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M8">
+        <v>90.95124249490371</v>
+      </c>
+      <c r="N8">
+        <v>-47.4112424949037</v>
+      </c>
+      <c r="O8">
+        <v>-16.11982244826726</v>
+      </c>
+      <c r="P8">
+        <v>-31.29142004663644</v>
+      </c>
+      <c r="Q8">
+        <v>-13.59142004663645</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1147021199395652</v>
+      </c>
+      <c r="T8">
+        <v>1.381505114298777</v>
+      </c>
+      <c r="U8">
+        <v>0.1667485147100013</v>
+      </c>
+      <c r="V8">
+        <v>0.1627641315711492</v>
+      </c>
+      <c r="W8">
+        <v>0.1396078375224489</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.4787180340327917</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1177709481416382</v>
+      </c>
+      <c r="C9">
+        <v>7806.655278558605</v>
+      </c>
+      <c r="D9">
+        <v>7560.701473877109</v>
+      </c>
+      <c r="E9">
+        <v>-306.4137378029903</v>
+      </c>
+      <c r="F9">
+        <v>636.3461953185047</v>
+      </c>
+      <c r="G9">
+        <v>882.3</v>
+      </c>
+      <c r="H9">
+        <v>8147.9</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>61.24</v>
+      </c>
+      <c r="K9">
+        <v>17.7</v>
+      </c>
+      <c r="L9">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M9">
+        <v>106.109782910721</v>
+      </c>
+      <c r="N9">
+        <v>-62.569782910721</v>
+      </c>
+      <c r="O9">
+        <v>-21.27372618964514</v>
+      </c>
+      <c r="P9">
+        <v>-41.29605672107586</v>
+      </c>
+      <c r="Q9">
+        <v>-23.59605672107586</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1158354760679476</v>
+      </c>
+      <c r="T9">
+        <v>1.396360008000915</v>
+      </c>
+      <c r="U9">
+        <v>0.1667485147100013</v>
+      </c>
+      <c r="V9">
+        <v>0.1395121127752707</v>
+      </c>
+      <c r="W9">
+        <v>0.1434850771206707</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.4103297434566786</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1193454332887383</v>
+      </c>
+      <c r="C10">
+        <v>7607.573248257506</v>
+      </c>
+      <c r="D10">
+        <v>7452.526042907225</v>
+      </c>
+      <c r="E10">
+        <v>-215.5071384717754</v>
+      </c>
+      <c r="F10">
+        <v>727.2527946497196</v>
+      </c>
+      <c r="G10">
+        <v>882.3</v>
+      </c>
+      <c r="H10">
+        <v>8147.9</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>61.24</v>
+      </c>
+      <c r="K10">
+        <v>17.7</v>
+      </c>
+      <c r="L10">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M10">
+        <v>121.2683233265383</v>
+      </c>
+      <c r="N10">
+        <v>-77.72832332653829</v>
+      </c>
+      <c r="O10">
+        <v>-26.42762993102302</v>
+      </c>
+      <c r="P10">
+        <v>-51.30069339551527</v>
+      </c>
+      <c r="Q10">
+        <v>-33.60069339551527</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.116993470373034</v>
+      </c>
+      <c r="T10">
+        <v>1.411537834174838</v>
+      </c>
+      <c r="U10">
+        <v>0.1667485147100013</v>
+      </c>
+      <c r="V10">
+        <v>0.1220730986783619</v>
+      </c>
+      <c r="W10">
+        <v>0.146393006819337</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.3590385255245937</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1209199184358382</v>
+      </c>
+      <c r="C11">
+        <v>7411.543013939242</v>
+      </c>
+      <c r="D11">
+        <v>7347.402407920176</v>
+      </c>
+      <c r="E11">
+        <v>-124.6005391405605</v>
+      </c>
+      <c r="F11">
+        <v>818.1593939809345</v>
+      </c>
+      <c r="G11">
+        <v>882.3</v>
+      </c>
+      <c r="H11">
+        <v>8147.9</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>61.24</v>
+      </c>
+      <c r="K11">
+        <v>17.7</v>
+      </c>
+      <c r="L11">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M11">
+        <v>136.4268637423556</v>
+      </c>
+      <c r="N11">
+        <v>-92.88686374235557</v>
+      </c>
+      <c r="O11">
+        <v>-31.5815336724009</v>
+      </c>
+      <c r="P11">
+        <v>-61.30533006995468</v>
+      </c>
+      <c r="Q11">
+        <v>-43.60533006995468</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.118176915102408</v>
+      </c>
+      <c r="T11">
+        <v>1.42704923894599</v>
+      </c>
+      <c r="U11">
+        <v>0.1667485147100013</v>
+      </c>
+      <c r="V11">
+        <v>0.1085094210474328</v>
+      </c>
+      <c r="W11">
+        <v>0.1486547299182997</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.3191453560218611</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1224944035829383</v>
+      </c>
+      <c r="C12">
+        <v>7218.437228121204</v>
+      </c>
+      <c r="D12">
+        <v>7245.203221433353</v>
+      </c>
+      <c r="E12">
+        <v>-33.69393980934547</v>
+      </c>
+      <c r="F12">
+        <v>909.0659933121495</v>
+      </c>
+      <c r="G12">
+        <v>882.3</v>
+      </c>
+      <c r="H12">
+        <v>8147.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>61.24</v>
+      </c>
+      <c r="K12">
+        <v>17.7</v>
+      </c>
+      <c r="L12">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M12">
+        <v>151.5854041581729</v>
+      </c>
+      <c r="N12">
+        <v>-108.0454041581729</v>
+      </c>
+      <c r="O12">
+        <v>-36.73543741377878</v>
+      </c>
+      <c r="P12">
+        <v>-71.3099667443941</v>
+      </c>
+      <c r="Q12">
+        <v>-53.60996674439411</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1193866586035459</v>
+      </c>
+      <c r="T12">
+        <v>1.442905341600945</v>
+      </c>
+      <c r="U12">
+        <v>0.1667485147100013</v>
+      </c>
+      <c r="V12">
+        <v>0.09765847894268949</v>
+      </c>
+      <c r="W12">
+        <v>0.1504641083974698</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.287230820419675</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1240688887300383</v>
+      </c>
+      <c r="C13">
+        <v>7028.135531511485</v>
+      </c>
+      <c r="D13">
+        <v>7145.80812415485</v>
+      </c>
+      <c r="E13">
+        <v>57.21265952186945</v>
+      </c>
+      <c r="F13">
+        <v>999.9725926433645</v>
+      </c>
+      <c r="G13">
+        <v>882.3</v>
+      </c>
+      <c r="H13">
+        <v>8147.9</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>61.24</v>
+      </c>
+      <c r="K13">
+        <v>17.7</v>
+      </c>
+      <c r="L13">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M13">
+        <v>166.7439445739902</v>
+      </c>
+      <c r="N13">
+        <v>-123.2039445739902</v>
+      </c>
+      <c r="O13">
+        <v>-41.88934115515666</v>
+      </c>
+      <c r="P13">
+        <v>-81.31460341883351</v>
+      </c>
+      <c r="Q13">
+        <v>-63.61460341883352</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1206235873519003</v>
+      </c>
+      <c r="T13">
+        <v>1.459117761169495</v>
+      </c>
+      <c r="U13">
+        <v>0.1667485147100013</v>
+      </c>
+      <c r="V13">
+        <v>0.08878043540244498</v>
+      </c>
+      <c r="W13">
+        <v>0.1519445089713364</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.2611189276542499</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1256433738771383</v>
+      </c>
+      <c r="C14">
+        <v>6840.524080149852</v>
+      </c>
+      <c r="D14">
+        <v>7049.103272124431</v>
+      </c>
+      <c r="E14">
+        <v>148.1192588530843</v>
+      </c>
+      <c r="F14">
+        <v>1090.879191974579</v>
+      </c>
+      <c r="G14">
+        <v>882.3</v>
+      </c>
+      <c r="H14">
+        <v>8147.9</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>61.24</v>
+      </c>
+      <c r="K14">
+        <v>17.7</v>
+      </c>
+      <c r="L14">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M14">
+        <v>181.9024849898074</v>
+      </c>
+      <c r="N14">
+        <v>-138.3624849898074</v>
+      </c>
+      <c r="O14">
+        <v>-47.04324489653452</v>
+      </c>
+      <c r="P14">
+        <v>-91.31924009327288</v>
+      </c>
+      <c r="Q14">
+        <v>-73.61924009327288</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1218886281172628</v>
+      </c>
+      <c r="T14">
+        <v>1.475698644819148</v>
+      </c>
+      <c r="U14">
+        <v>0.1667485147100013</v>
+      </c>
+      <c r="V14">
+        <v>0.08138206578557459</v>
+      </c>
+      <c r="W14">
+        <v>0.1531781761162251</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.2393590170163959</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1272178590242383</v>
+      </c>
+      <c r="C15">
+        <v>6655.495110431529</v>
+      </c>
+      <c r="D15">
+        <v>6954.980901737323</v>
+      </c>
+      <c r="E15">
+        <v>239.0258581842994</v>
+      </c>
+      <c r="F15">
+        <v>1181.785791305794</v>
+      </c>
+      <c r="G15">
+        <v>882.3</v>
+      </c>
+      <c r="H15">
+        <v>8147.9</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>61.24</v>
+      </c>
+      <c r="K15">
+        <v>17.7</v>
+      </c>
+      <c r="L15">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M15">
+        <v>197.0610254056247</v>
+      </c>
+      <c r="N15">
+        <v>-153.5210254056248</v>
+      </c>
+      <c r="O15">
+        <v>-52.19714863791242</v>
+      </c>
+      <c r="P15">
+        <v>-101.3238767677123</v>
+      </c>
+      <c r="Q15">
+        <v>-83.62387676771235</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1231827502795302</v>
+      </c>
+      <c r="T15">
+        <v>1.492660698207875</v>
+      </c>
+      <c r="U15">
+        <v>0.1667485147100013</v>
+      </c>
+      <c r="V15">
+        <v>0.07512190687899192</v>
+      </c>
+      <c r="W15">
+        <v>0.1542220483157463</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.2209467849382114</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1287923441713383</v>
+      </c>
+      <c r="C16">
+        <v>6472.946538519645</v>
+      </c>
+      <c r="D16">
+        <v>6863.338929156655</v>
+      </c>
+      <c r="E16">
+        <v>329.9324575155143</v>
+      </c>
+      <c r="F16">
+        <v>1272.692390637009</v>
+      </c>
+      <c r="G16">
+        <v>882.3</v>
+      </c>
+      <c r="H16">
+        <v>8147.9</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>61.24</v>
+      </c>
+      <c r="K16">
+        <v>17.7</v>
+      </c>
+      <c r="L16">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M16">
+        <v>212.219565821442</v>
+      </c>
+      <c r="N16">
+        <v>-168.679565821442</v>
+      </c>
+      <c r="O16">
+        <v>-57.35105237929028</v>
+      </c>
+      <c r="P16">
+        <v>-111.3285134421517</v>
+      </c>
+      <c r="Q16">
+        <v>-93.62851344215173</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1245069683060364</v>
+      </c>
+      <c r="T16">
+        <v>1.510017217954478</v>
+      </c>
+      <c r="U16">
+        <v>0.1667485147100013</v>
+      </c>
+      <c r="V16">
+        <v>0.06975605638763537</v>
+      </c>
+      <c r="W16">
+        <v>0.155116795915336</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.2051648717283393</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1370939941345699</v>
+      </c>
+      <c r="C17">
+        <v>5936.18927339829</v>
+      </c>
+      <c r="D17">
+        <v>6417.488263366514</v>
+      </c>
+      <c r="E17">
+        <v>420.8390568467292</v>
+      </c>
+      <c r="F17">
+        <v>1363.598989968224</v>
+      </c>
+      <c r="G17">
+        <v>882.3</v>
+      </c>
+      <c r="H17">
+        <v>8147.9</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>61.24</v>
+      </c>
+      <c r="K17">
+        <v>17.7</v>
+      </c>
+      <c r="L17">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M17">
+        <v>286.6946623008771</v>
+      </c>
+      <c r="N17">
+        <v>-243.1546623008771</v>
+      </c>
+      <c r="O17">
+        <v>-82.67258518229821</v>
+      </c>
+      <c r="P17">
+        <v>-160.4820771185789</v>
+      </c>
+      <c r="Q17">
+        <v>-142.7820771185789</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1261001853639092</v>
+      </c>
+      <c r="T17">
+        <v>1.530899506801243</v>
+      </c>
+      <c r="U17">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V17">
+        <v>0.05163542244279417</v>
+      </c>
+      <c r="W17">
+        <v>0.1993922438349803</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.1518688895376299</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1391034792816699</v>
+      </c>
+      <c r="C18">
+        <v>5745.933662636187</v>
+      </c>
+      <c r="D18">
+        <v>6318.139251935626</v>
+      </c>
+      <c r="E18">
+        <v>511.7456561779442</v>
+      </c>
+      <c r="F18">
+        <v>1454.505589299439</v>
+      </c>
+      <c r="G18">
+        <v>882.3</v>
+      </c>
+      <c r="H18">
+        <v>8147.9</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>61.24</v>
+      </c>
+      <c r="K18">
+        <v>17.7</v>
+      </c>
+      <c r="L18">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M18">
+        <v>305.8076397876022</v>
+      </c>
+      <c r="N18">
+        <v>-262.2676397876022</v>
+      </c>
+      <c r="O18">
+        <v>-89.17099752778476</v>
+      </c>
+      <c r="P18">
+        <v>-173.0966422598174</v>
+      </c>
+      <c r="Q18">
+        <v>-155.3966422598174</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1274906637610986</v>
+      </c>
+      <c r="T18">
+        <v>1.54912450092983</v>
+      </c>
+      <c r="U18">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V18">
+        <v>0.04840820854011953</v>
+      </c>
+      <c r="W18">
+        <v>0.2000707607646691</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.142377083941528</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1411129644287699</v>
+      </c>
+      <c r="C19">
+        <v>5558.707197963235</v>
+      </c>
+      <c r="D19">
+        <v>6221.819386593889</v>
+      </c>
+      <c r="E19">
+        <v>602.6522555091593</v>
+      </c>
+      <c r="F19">
+        <v>1545.412188630654</v>
+      </c>
+      <c r="G19">
+        <v>882.3</v>
+      </c>
+      <c r="H19">
+        <v>8147.9</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>61.24</v>
+      </c>
+      <c r="K19">
+        <v>17.7</v>
+      </c>
+      <c r="L19">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M19">
+        <v>324.9206172743274</v>
+      </c>
+      <c r="N19">
+        <v>-281.3806172743274</v>
+      </c>
+      <c r="O19">
+        <v>-95.66940987327132</v>
+      </c>
+      <c r="P19">
+        <v>-185.7112074010561</v>
+      </c>
+      <c r="Q19">
+        <v>-168.0112074010561</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1289146476618347</v>
+      </c>
+      <c r="T19">
+        <v>1.567788651543442</v>
+      </c>
+      <c r="U19">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V19">
+        <v>0.04556066686128896</v>
+      </c>
+      <c r="W19">
+        <v>0.2006694521732181</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.1340019613567323</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1431224495758699</v>
+      </c>
+      <c r="C20">
+        <v>5374.373421914476</v>
+      </c>
+      <c r="D20">
+        <v>6128.392209876345</v>
+      </c>
+      <c r="E20">
+        <v>693.558854840374</v>
+      </c>
+      <c r="F20">
+        <v>1636.318787961869</v>
+      </c>
+      <c r="G20">
+        <v>882.3</v>
+      </c>
+      <c r="H20">
+        <v>8147.9</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>61.24</v>
+      </c>
+      <c r="K20">
+        <v>17.7</v>
+      </c>
+      <c r="L20">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M20">
+        <v>344.0335947610525</v>
+      </c>
+      <c r="N20">
+        <v>-300.4935947610525</v>
+      </c>
+      <c r="O20">
+        <v>-102.1678222187578</v>
+      </c>
+      <c r="P20">
+        <v>-198.3257725422946</v>
+      </c>
+      <c r="Q20">
+        <v>-180.6257725422946</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.130373362877223</v>
+      </c>
+      <c r="T20">
+        <v>1.586908025342752</v>
+      </c>
+      <c r="U20">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V20">
+        <v>0.04302951870232848</v>
+      </c>
+      <c r="W20">
+        <v>0.2012016223141505</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.1265574079480249</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.14513193472297</v>
+      </c>
+      <c r="C21">
+        <v>5192.803951981689</v>
+      </c>
+      <c r="D21">
+        <v>6037.729339274773</v>
+      </c>
+      <c r="E21">
+        <v>784.4654541715889</v>
+      </c>
+      <c r="F21">
+        <v>1727.225387293084</v>
+      </c>
+      <c r="G21">
+        <v>882.3</v>
+      </c>
+      <c r="H21">
+        <v>8147.9</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>61.24</v>
+      </c>
+      <c r="K21">
+        <v>17.7</v>
+      </c>
+      <c r="L21">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M21">
+        <v>363.1465722477776</v>
+      </c>
+      <c r="N21">
+        <v>-319.6065722477776</v>
+      </c>
+      <c r="O21">
+        <v>-108.6662345642444</v>
+      </c>
+      <c r="P21">
+        <v>-210.9403376835332</v>
+      </c>
+      <c r="Q21">
+        <v>-193.2403376835332</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1318680957522504</v>
+      </c>
+      <c r="T21">
+        <v>1.606499482445749</v>
+      </c>
+      <c r="U21">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V21">
+        <v>0.04076480719167961</v>
+      </c>
+      <c r="W21">
+        <v>0.2016777745455111</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.1198964917402342</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.14714141987007</v>
+      </c>
+      <c r="C22">
+        <v>5013.877892020143</v>
+      </c>
+      <c r="D22">
+        <v>5949.709878644442</v>
+      </c>
+      <c r="E22">
+        <v>875.3720535028041</v>
+      </c>
+      <c r="F22">
+        <v>1818.131986624299</v>
+      </c>
+      <c r="G22">
+        <v>882.3</v>
+      </c>
+      <c r="H22">
+        <v>8147.9</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>61.24</v>
+      </c>
+      <c r="K22">
+        <v>17.7</v>
+      </c>
+      <c r="L22">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M22">
+        <v>382.2595497345028</v>
+      </c>
+      <c r="N22">
+        <v>-338.7195497345028</v>
+      </c>
+      <c r="O22">
+        <v>-115.1646469097309</v>
+      </c>
+      <c r="P22">
+        <v>-223.5549028247718</v>
+      </c>
+      <c r="Q22">
+        <v>-205.8549028247718</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1334001969491536</v>
+      </c>
+      <c r="T22">
+        <v>1.626580725976321</v>
+      </c>
+      <c r="U22">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V22">
+        <v>0.03872656683209562</v>
+      </c>
+      <c r="W22">
+        <v>0.2021063115537356</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.1139016671532225</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.14915090501717</v>
+      </c>
+      <c r="C23">
+        <v>4837.481294399518</v>
+      </c>
+      <c r="D23">
+        <v>5864.219880355031</v>
+      </c>
+      <c r="E23">
+        <v>966.2786528340188</v>
+      </c>
+      <c r="F23">
+        <v>1909.038585955514</v>
+      </c>
+      <c r="G23">
+        <v>882.3</v>
+      </c>
+      <c r="H23">
+        <v>8147.9</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>61.24</v>
+      </c>
+      <c r="K23">
+        <v>17.7</v>
+      </c>
+      <c r="L23">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M23">
+        <v>401.3725272212279</v>
+      </c>
+      <c r="N23">
+        <v>-357.8325272212278</v>
+      </c>
+      <c r="O23">
+        <v>-121.6630592552175</v>
+      </c>
+      <c r="P23">
+        <v>-236.1694679660104</v>
+      </c>
+      <c r="Q23">
+        <v>-218.4694679660104</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1349710855181302</v>
+      </c>
+      <c r="T23">
+        <v>1.647170355419059</v>
+      </c>
+      <c r="U23">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V23">
+        <v>0.03688244460199584</v>
+      </c>
+      <c r="W23">
+        <v>0.2024940355135577</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.1084777782411642</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.15116039016427</v>
+      </c>
+      <c r="C24">
+        <v>4663.506667867359</v>
+      </c>
+      <c r="D24">
+        <v>5781.151853154088</v>
+      </c>
+      <c r="E24">
+        <v>1057.185252165234</v>
+      </c>
+      <c r="F24">
+        <v>1999.945185286729</v>
+      </c>
+      <c r="G24">
+        <v>882.3</v>
+      </c>
+      <c r="H24">
+        <v>8147.9</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>61.24</v>
+      </c>
+      <c r="K24">
+        <v>17.7</v>
+      </c>
+      <c r="L24">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M24">
+        <v>420.4855047079531</v>
+      </c>
+      <c r="N24">
+        <v>-376.945504707953</v>
+      </c>
+      <c r="O24">
+        <v>-128.161471600704</v>
+      </c>
+      <c r="P24">
+        <v>-248.784033107249</v>
+      </c>
+      <c r="Q24">
+        <v>-231.084033107249</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1365822532811831</v>
+      </c>
+      <c r="T24">
+        <v>1.668287924078278</v>
+      </c>
+      <c r="U24">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V24">
+        <v>0.03520596984735966</v>
+      </c>
+      <c r="W24">
+        <v>0.2028465118406688</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.1035469701392931</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.15316987531137</v>
+      </c>
+      <c r="C25">
+        <v>4491.852526655674</v>
+      </c>
+      <c r="D25">
+        <v>5700.404311273617</v>
+      </c>
+      <c r="E25">
+        <v>1148.091851496449</v>
+      </c>
+      <c r="F25">
+        <v>2090.851784617944</v>
+      </c>
+      <c r="G25">
+        <v>882.3</v>
+      </c>
+      <c r="H25">
+        <v>8147.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>61.24</v>
+      </c>
+      <c r="K25">
+        <v>17.7</v>
+      </c>
+      <c r="L25">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M25">
+        <v>439.5984821946782</v>
+      </c>
+      <c r="N25">
+        <v>-396.0584821946782</v>
+      </c>
+      <c r="O25">
+        <v>-134.6598839461906</v>
+      </c>
+      <c r="P25">
+        <v>-261.3985982484876</v>
+      </c>
+      <c r="Q25">
+        <v>-243.6985982484876</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1382352695575622</v>
+      </c>
+      <c r="T25">
+        <v>1.689954001014359</v>
+      </c>
+      <c r="U25">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V25">
+        <v>0.03367527550617011</v>
+      </c>
+      <c r="W25">
+        <v>0.2031683380523789</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.09904492795932385</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.15517936045847</v>
+      </c>
+      <c r="C26">
+        <v>4322.422976853819</v>
+      </c>
+      <c r="D26">
+        <v>5621.881360802978</v>
+      </c>
+      <c r="E26">
+        <v>1238.998450827663</v>
+      </c>
+      <c r="F26">
+        <v>2181.758383949159</v>
+      </c>
+      <c r="G26">
+        <v>882.3</v>
+      </c>
+      <c r="H26">
+        <v>8147.9</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>61.24</v>
+      </c>
+      <c r="K26">
+        <v>17.7</v>
+      </c>
+      <c r="L26">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M26">
+        <v>458.7114596814033</v>
+      </c>
+      <c r="N26">
+        <v>-415.1714596814032</v>
+      </c>
+      <c r="O26">
+        <v>-141.1582962916771</v>
+      </c>
+      <c r="P26">
+        <v>-274.0131633897261</v>
+      </c>
+      <c r="Q26">
+        <v>-256.3131633897261</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1399317862622669</v>
+      </c>
+      <c r="T26">
+        <v>1.712190237869812</v>
+      </c>
+      <c r="U26">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V26">
+        <v>0.03227213902674636</v>
+      </c>
+      <c r="W26">
+        <v>0.2034633454131132</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.09491805596101877</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.15718884560557</v>
+      </c>
+      <c r="C27">
+        <v>4155.127336503094</v>
+      </c>
+      <c r="D27">
+        <v>5545.492319783467</v>
+      </c>
+      <c r="E27">
+        <v>1329.905050158879</v>
+      </c>
+      <c r="F27">
+        <v>2272.664983280374</v>
+      </c>
+      <c r="G27">
+        <v>882.3</v>
+      </c>
+      <c r="H27">
+        <v>8147.9</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>61.24</v>
+      </c>
+      <c r="K27">
+        <v>17.7</v>
+      </c>
+      <c r="L27">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M27">
+        <v>477.8244371681284</v>
+      </c>
+      <c r="N27">
+        <v>-434.2844371681284</v>
+      </c>
+      <c r="O27">
+        <v>-147.6567086371637</v>
+      </c>
+      <c r="P27">
+        <v>-286.6277285309648</v>
+      </c>
+      <c r="Q27">
+        <v>-268.9277285309648</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1416735434124305</v>
+      </c>
+      <c r="T27">
+        <v>1.735019441041409</v>
+      </c>
+      <c r="U27">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V27">
+        <v>0.0309812534656765</v>
+      </c>
+      <c r="W27">
+        <v>0.2037347521849887</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.09112133372257802</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1591983307526701</v>
+      </c>
+      <c r="C28">
+        <v>3989.879786248623</v>
+      </c>
+      <c r="D28">
+        <v>5471.151368860212</v>
+      </c>
+      <c r="E28">
+        <v>1420.811649490094</v>
+      </c>
+      <c r="F28">
+        <v>2363.571582611589</v>
+      </c>
+      <c r="G28">
+        <v>882.3</v>
+      </c>
+      <c r="H28">
+        <v>8147.9</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>61.24</v>
+      </c>
+      <c r="K28">
+        <v>17.7</v>
+      </c>
+      <c r="L28">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M28">
+        <v>496.9374146548536</v>
+      </c>
+      <c r="N28">
+        <v>-453.3974146548536</v>
+      </c>
+      <c r="O28">
+        <v>-154.1551209826502</v>
+      </c>
+      <c r="P28">
+        <v>-299.2422936722033</v>
+      </c>
+      <c r="Q28">
+        <v>-281.5422936722034</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.143462375080166</v>
+      </c>
+      <c r="T28">
+        <v>1.758465649704131</v>
+      </c>
+      <c r="U28">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V28">
+        <v>0.02978966679391971</v>
+      </c>
+      <c r="W28">
+        <v>0.2039852815128738</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.0876166670409404</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1612078158997701</v>
+      </c>
+      <c r="C29">
+        <v>3826.599047718971</v>
+      </c>
+      <c r="D29">
+        <v>5398.777229661774</v>
+      </c>
+      <c r="E29">
+        <v>1511.718248821308</v>
+      </c>
+      <c r="F29">
+        <v>2454.478181942804</v>
+      </c>
+      <c r="G29">
+        <v>882.3</v>
+      </c>
+      <c r="H29">
+        <v>8147.9</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>61.24</v>
+      </c>
+      <c r="K29">
+        <v>17.7</v>
+      </c>
+      <c r="L29">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M29">
+        <v>516.0503921415788</v>
+      </c>
+      <c r="N29">
+        <v>-472.5103921415787</v>
+      </c>
+      <c r="O29">
+        <v>-160.6535333281368</v>
+      </c>
+      <c r="P29">
+        <v>-311.8568588134419</v>
+      </c>
+      <c r="Q29">
+        <v>-294.1568588134419</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1453002158346889</v>
+      </c>
+      <c r="T29">
+        <v>1.782554220248023</v>
+      </c>
+      <c r="U29">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V29">
+        <v>0.02868634580155232</v>
+      </c>
+      <c r="W29">
+        <v>0.2042172531127674</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.08437160529868326</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1632173010468701</v>
+      </c>
+      <c r="C30">
+        <v>3665.208087099458</v>
+      </c>
+      <c r="D30">
+        <v>5328.292868373476</v>
+      </c>
+      <c r="E30">
+        <v>1602.624848152524</v>
+      </c>
+      <c r="F30">
+        <v>2545.384781274019</v>
+      </c>
+      <c r="G30">
+        <v>882.3</v>
+      </c>
+      <c r="H30">
+        <v>8147.9</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>61.24</v>
+      </c>
+      <c r="K30">
+        <v>17.7</v>
+      </c>
+      <c r="L30">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M30">
+        <v>535.1633696283039</v>
+      </c>
+      <c r="N30">
+        <v>-491.6233696283039</v>
+      </c>
+      <c r="O30">
+        <v>-167.1519456736233</v>
+      </c>
+      <c r="P30">
+        <v>-324.4714239546806</v>
+      </c>
+      <c r="Q30">
+        <v>-306.7714239546806</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1471891077212818</v>
+      </c>
+      <c r="T30">
+        <v>1.807311917751468</v>
+      </c>
+      <c r="U30">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V30">
+        <v>0.02766183345149687</v>
+      </c>
+      <c r="W30">
+        <v>0.2044326553126686</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.0813583336808732</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.16522678619397</v>
+      </c>
+      <c r="C31">
+        <v>3505.633841626448</v>
+      </c>
+      <c r="D31">
+        <v>5259.625222231682</v>
+      </c>
+      <c r="E31">
+        <v>1693.531447483738</v>
+      </c>
+      <c r="F31">
+        <v>2636.291380605233</v>
+      </c>
+      <c r="G31">
+        <v>882.3</v>
+      </c>
+      <c r="H31">
+        <v>8147.9</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>61.24</v>
+      </c>
+      <c r="K31">
+        <v>17.7</v>
+      </c>
+      <c r="L31">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M31">
+        <v>554.276347115029</v>
+      </c>
+      <c r="N31">
+        <v>-510.736347115029</v>
+      </c>
+      <c r="O31">
+        <v>-173.6503580191099</v>
+      </c>
+      <c r="P31">
+        <v>-337.0859890959191</v>
+      </c>
+      <c r="Q31">
+        <v>-319.3859890959191</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1491312078300322</v>
+      </c>
+      <c r="T31">
+        <v>1.832767015184587</v>
+      </c>
+      <c r="U31">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V31">
+        <v>0.02670797712558319</v>
+      </c>
+      <c r="W31">
+        <v>0.2046332021884387</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.07855287389877408</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1672362713410701</v>
+      </c>
+      <c r="C32">
+        <v>3347.806966961121</v>
+      </c>
+      <c r="D32">
+        <v>5192.704946897569</v>
+      </c>
+      <c r="E32">
+        <v>1784.438046814953</v>
+      </c>
+      <c r="F32">
+        <v>2727.197979936449</v>
+      </c>
+      <c r="G32">
+        <v>882.3</v>
+      </c>
+      <c r="H32">
+        <v>8147.9</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>61.24</v>
+      </c>
+      <c r="K32">
+        <v>17.7</v>
+      </c>
+      <c r="L32">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M32">
+        <v>573.3893246017542</v>
+      </c>
+      <c r="N32">
+        <v>-529.8493246017542</v>
+      </c>
+      <c r="O32">
+        <v>-180.1487703645965</v>
+      </c>
+      <c r="P32">
+        <v>-349.7005542371578</v>
+      </c>
+      <c r="Q32">
+        <v>-332.0005542371578</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1511287965133184</v>
+      </c>
+      <c r="T32">
+        <v>1.858949401115795</v>
+      </c>
+      <c r="U32">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V32">
+        <v>0.02581771122139708</v>
+      </c>
+      <c r="W32">
+        <v>0.2048203792724908</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.07593444476881483</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1692457564881701</v>
+      </c>
+      <c r="C33">
+        <v>3191.661603606585</v>
+      </c>
+      <c r="D33">
+        <v>5127.466182874248</v>
+      </c>
+      <c r="E33">
+        <v>1875.344646146168</v>
+      </c>
+      <c r="F33">
+        <v>2818.104579267663</v>
+      </c>
+      <c r="G33">
+        <v>882.3</v>
+      </c>
+      <c r="H33">
+        <v>8147.9</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>61.24</v>
+      </c>
+      <c r="K33">
+        <v>17.7</v>
+      </c>
+      <c r="L33">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M33">
+        <v>592.5023020884793</v>
+      </c>
+      <c r="N33">
+        <v>-548.9623020884793</v>
+      </c>
+      <c r="O33">
+        <v>-186.647182710083</v>
+      </c>
+      <c r="P33">
+        <v>-362.3151193783963</v>
+      </c>
+      <c r="Q33">
+        <v>-344.6151193783963</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1531842863178592</v>
+      </c>
+      <c r="T33">
+        <v>1.88589069678414</v>
+      </c>
+      <c r="U33">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V33">
+        <v>0.02498488182715847</v>
+      </c>
+      <c r="W33">
+        <v>0.2049954804156363</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.073484946550466</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1712552416352701</v>
+      </c>
+      <c r="C34">
+        <v>3037.135160714224</v>
+      </c>
+      <c r="D34">
+        <v>5063.846339313102</v>
+      </c>
+      <c r="E34">
+        <v>1966.251245477383</v>
+      </c>
+      <c r="F34">
+        <v>2909.011178598878</v>
+      </c>
+      <c r="G34">
+        <v>882.3</v>
+      </c>
+      <c r="H34">
+        <v>8147.9</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>61.24</v>
+      </c>
+      <c r="K34">
+        <v>17.7</v>
+      </c>
+      <c r="L34">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M34">
+        <v>611.6152795752045</v>
+      </c>
+      <c r="N34">
+        <v>-568.0752795752045</v>
+      </c>
+      <c r="O34">
+        <v>-193.1455950555695</v>
+      </c>
+      <c r="P34">
+        <v>-374.929684519635</v>
+      </c>
+      <c r="Q34">
+        <v>-357.229684519635</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1553002317048865</v>
+      </c>
+      <c r="T34">
+        <v>1.913624383501554</v>
+      </c>
+      <c r="U34">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V34">
+        <v>0.02420410427005976</v>
+      </c>
+      <c r="W34">
+        <v>0.2051596377373352</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.07118854197076396</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1732647267823701</v>
+      </c>
+      <c r="C35">
+        <v>2884.168115787582</v>
+      </c>
+      <c r="D35">
+        <v>5001.785893717675</v>
+      </c>
+      <c r="E35">
+        <v>2057.157844808598</v>
+      </c>
+      <c r="F35">
+        <v>2999.917777930094</v>
+      </c>
+      <c r="G35">
+        <v>882.3</v>
+      </c>
+      <c r="H35">
+        <v>8147.9</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>61.24</v>
+      </c>
+      <c r="K35">
+        <v>17.7</v>
+      </c>
+      <c r="L35">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M35">
+        <v>630.7282570619296</v>
+      </c>
+      <c r="N35">
+        <v>-587.1882570619297</v>
+      </c>
+      <c r="O35">
+        <v>-199.6440074010561</v>
+      </c>
+      <c r="P35">
+        <v>-387.5442496608736</v>
+      </c>
+      <c r="Q35">
+        <v>-369.8442496608736</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1574793396407804</v>
+      </c>
+      <c r="T35">
+        <v>1.942185941464264</v>
+      </c>
+      <c r="U35">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V35">
+        <v>0.02347064656490644</v>
+      </c>
+      <c r="W35">
+        <v>0.2053138461304463</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.06903131342619528</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1752742119294702</v>
+      </c>
+      <c r="C36">
+        <v>2732.703828936385</v>
+      </c>
+      <c r="D36">
+        <v>4941.228206197693</v>
+      </c>
+      <c r="E36">
+        <v>2148.064444139814</v>
+      </c>
+      <c r="F36">
+        <v>3090.824377261309</v>
+      </c>
+      <c r="G36">
+        <v>882.3</v>
+      </c>
+      <c r="H36">
+        <v>8147.9</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>61.24</v>
+      </c>
+      <c r="K36">
+        <v>17.7</v>
+      </c>
+      <c r="L36">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M36">
+        <v>649.8412345486548</v>
+      </c>
+      <c r="N36">
+        <v>-606.3012345486549</v>
+      </c>
+      <c r="O36">
+        <v>-206.1424197465427</v>
+      </c>
+      <c r="P36">
+        <v>-400.1588148021122</v>
+      </c>
+      <c r="Q36">
+        <v>-382.4588148021122</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1597244811504892</v>
+      </c>
+      <c r="T36">
+        <v>1.971613001183419</v>
+      </c>
+      <c r="U36">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V36">
+        <v>0.02278033343064448</v>
+      </c>
+      <c r="W36">
+        <v>0.2054589834416097</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.06700098067836602</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1772836970765702</v>
+      </c>
+      <c r="C37">
+        <v>2582.688370462369</v>
+      </c>
+      <c r="D37">
+        <v>4882.119347054892</v>
+      </c>
+      <c r="E37">
+        <v>2238.971043471028</v>
+      </c>
+      <c r="F37">
+        <v>3181.730976592523</v>
+      </c>
+      <c r="G37">
+        <v>882.3</v>
+      </c>
+      <c r="H37">
+        <v>8147.9</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>61.24</v>
+      </c>
+      <c r="K37">
+        <v>17.7</v>
+      </c>
+      <c r="L37">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M37">
+        <v>668.9542120353799</v>
+      </c>
+      <c r="N37">
+        <v>-625.4142120353799</v>
+      </c>
+      <c r="O37">
+        <v>-212.6408320920292</v>
+      </c>
+      <c r="P37">
+        <v>-412.7733799433507</v>
+      </c>
+      <c r="Q37">
+        <v>-395.0733799433507</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1620387039374198</v>
+      </c>
+      <c r="T37">
+        <v>2.001945508893934</v>
+      </c>
+      <c r="U37">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V37">
+        <v>0.0221294667611975</v>
+      </c>
+      <c r="W37">
+        <v>0.2055958271921351</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.06508666694469845</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1792931822236702</v>
+      </c>
+      <c r="C38">
+        <v>2434.070360673716</v>
+      </c>
+      <c r="D38">
+        <v>4824.407936597454</v>
+      </c>
+      <c r="E38">
+        <v>2329.877642802243</v>
+      </c>
+      <c r="F38">
+        <v>3272.637575923738</v>
+      </c>
+      <c r="G38">
+        <v>882.3</v>
+      </c>
+      <c r="H38">
+        <v>8147.9</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>61.24</v>
+      </c>
+      <c r="K38">
+        <v>17.7</v>
+      </c>
+      <c r="L38">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M38">
+        <v>688.067189522105</v>
+      </c>
+      <c r="N38">
+        <v>-644.527189522105</v>
+      </c>
+      <c r="O38">
+        <v>-219.1392444375157</v>
+      </c>
+      <c r="P38">
+        <v>-425.3879450845893</v>
+      </c>
+      <c r="Q38">
+        <v>-407.6879450845893</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1644252461864419</v>
+      </c>
+      <c r="T38">
+        <v>2.033225907470401</v>
+      </c>
+      <c r="U38">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V38">
+        <v>0.02151475935116424</v>
+      </c>
+      <c r="W38">
+        <v>0.2057250685120759</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.06327870397401236</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1813026673707702</v>
+      </c>
+      <c r="C39">
+        <v>2286.800820928056</v>
+      </c>
+      <c r="D39">
+        <v>4768.044996183009</v>
+      </c>
+      <c r="E39">
+        <v>2420.784242133458</v>
+      </c>
+      <c r="F39">
+        <v>3363.544175254953</v>
+      </c>
+      <c r="G39">
+        <v>882.3</v>
+      </c>
+      <c r="H39">
+        <v>8147.9</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>61.24</v>
+      </c>
+      <c r="K39">
+        <v>17.7</v>
+      </c>
+      <c r="L39">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M39">
+        <v>707.1801670088302</v>
+      </c>
+      <c r="N39">
+        <v>-663.6401670088302</v>
+      </c>
+      <c r="O39">
+        <v>-225.6376567830023</v>
+      </c>
+      <c r="P39">
+        <v>-438.0025102258279</v>
+      </c>
+      <c r="Q39">
+        <v>-420.3025102258279</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1668875516814649</v>
+      </c>
+      <c r="T39">
+        <v>2.065499334573106</v>
+      </c>
+      <c r="U39">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V39">
+        <v>0.02093327936870034</v>
+      </c>
+      <c r="W39">
+        <v>0.2058473238147225</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.06156846873147148</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1833121525178702</v>
+      </c>
+      <c r="C40">
+        <v>2140.833034996381</v>
+      </c>
+      <c r="D40">
+        <v>4712.983809582549</v>
+      </c>
+      <c r="E40">
+        <v>2511.690841464673</v>
+      </c>
+      <c r="F40">
+        <v>3454.450774586168</v>
+      </c>
+      <c r="G40">
+        <v>882.3</v>
+      </c>
+      <c r="H40">
+        <v>8147.9</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>61.24</v>
+      </c>
+      <c r="K40">
+        <v>17.7</v>
+      </c>
+      <c r="L40">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M40">
+        <v>726.2931444955552</v>
+      </c>
+      <c r="N40">
+        <v>-682.7531444955553</v>
+      </c>
+      <c r="O40">
+        <v>-232.1360691284888</v>
+      </c>
+      <c r="P40">
+        <v>-450.6170753670665</v>
+      </c>
+      <c r="Q40">
+        <v>-432.9170753670665</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1694292863860046</v>
+      </c>
+      <c r="T40">
+        <v>2.098813839969446</v>
+      </c>
+      <c r="U40">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V40">
+        <v>0.0203824035958398</v>
+      </c>
+      <c r="W40">
+        <v>0.2059631446277562</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.05994824587011705</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1853216376649702</v>
+      </c>
+      <c r="C41">
+        <v>1996.122419923052</v>
+      </c>
+      <c r="D41">
+        <v>4659.179793840435</v>
+      </c>
+      <c r="E41">
+        <v>2602.597440795888</v>
+      </c>
+      <c r="F41">
+        <v>3545.357373917383</v>
+      </c>
+      <c r="G41">
+        <v>882.3</v>
+      </c>
+      <c r="H41">
+        <v>8147.9</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>61.24</v>
+      </c>
+      <c r="K41">
+        <v>17.7</v>
+      </c>
+      <c r="L41">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M41">
+        <v>745.4061219822804</v>
+      </c>
+      <c r="N41">
+        <v>-701.8661219822804</v>
+      </c>
+      <c r="O41">
+        <v>-238.6344814739754</v>
+      </c>
+      <c r="P41">
+        <v>-463.2316405083051</v>
+      </c>
+      <c r="Q41">
+        <v>-445.5316405083051</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1720543566546276</v>
+      </c>
+      <c r="T41">
+        <v>2.13322062423124</v>
+      </c>
+      <c r="U41">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V41">
+        <v>0.01985977786261314</v>
+      </c>
+      <c r="W41">
+        <v>0.2060730259119163</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.05841111136062682</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1873311228120703</v>
+      </c>
+      <c r="C42">
+        <v>1852.626405631655</v>
+      </c>
+      <c r="D42">
+        <v>4606.590378880253</v>
+      </c>
+      <c r="E42">
+        <v>2693.504040127103</v>
+      </c>
+      <c r="F42">
+        <v>3636.263973248598</v>
+      </c>
+      <c r="G42">
+        <v>882.3</v>
+      </c>
+      <c r="H42">
+        <v>8147.9</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>61.24</v>
+      </c>
+      <c r="K42">
+        <v>17.7</v>
+      </c>
+      <c r="L42">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M42">
+        <v>764.5190994690056</v>
+      </c>
+      <c r="N42">
+        <v>-720.9790994690056</v>
+      </c>
+      <c r="O42">
+        <v>-245.1328938194619</v>
+      </c>
+      <c r="P42">
+        <v>-475.8462056495437</v>
+      </c>
+      <c r="Q42">
+        <v>-458.1462056495437</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1747669292655381</v>
+      </c>
+      <c r="T42">
+        <v>2.168774301301761</v>
+      </c>
+      <c r="U42">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V42">
+        <v>0.01936328341604781</v>
+      </c>
+      <c r="W42">
+        <v>0.2061774131318684</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.05695083357661113</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1893406079591702</v>
+      </c>
+      <c r="C43">
+        <v>1710.304322593381</v>
+      </c>
+      <c r="D43">
+        <v>4555.174895173194</v>
+      </c>
+      <c r="E43">
+        <v>2784.410639458318</v>
+      </c>
+      <c r="F43">
+        <v>3727.170572579813</v>
+      </c>
+      <c r="G43">
+        <v>882.3</v>
+      </c>
+      <c r="H43">
+        <v>8147.9</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>61.24</v>
+      </c>
+      <c r="K43">
+        <v>17.7</v>
+      </c>
+      <c r="L43">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M43">
+        <v>783.6320769557308</v>
+      </c>
+      <c r="N43">
+        <v>-740.0920769557308</v>
+      </c>
+      <c r="O43">
+        <v>-251.6313061649485</v>
+      </c>
+      <c r="P43">
+        <v>-488.4607707907824</v>
+      </c>
+      <c r="Q43">
+        <v>-470.7607707907824</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1775714534903777</v>
+      </c>
+      <c r="T43">
+        <v>2.205533187764503</v>
+      </c>
+      <c r="U43">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V43">
+        <v>0.01889100821077835</v>
+      </c>
+      <c r="W43">
+        <v>0.2062767082923107</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.05556178885523033</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1913500931062703</v>
+      </c>
+      <c r="C44">
+        <v>1569.117296934947</v>
+      </c>
+      <c r="D44">
+        <v>4504.894468845974</v>
+      </c>
+      <c r="E44">
+        <v>2875.317238789532</v>
+      </c>
+      <c r="F44">
+        <v>3818.077171911028</v>
+      </c>
+      <c r="G44">
+        <v>882.3</v>
+      </c>
+      <c r="H44">
+        <v>8147.9</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>61.24</v>
+      </c>
+      <c r="K44">
+        <v>17.7</v>
+      </c>
+      <c r="L44">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M44">
+        <v>802.7450544424557</v>
+      </c>
+      <c r="N44">
+        <v>-759.2050544424558</v>
+      </c>
+      <c r="O44">
+        <v>-258.129718510435</v>
+      </c>
+      <c r="P44">
+        <v>-501.0753359320208</v>
+      </c>
+      <c r="Q44">
+        <v>-483.3753359320208</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1804726854471084</v>
+      </c>
+      <c r="T44">
+        <v>2.243559622036305</v>
+      </c>
+      <c r="U44">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V44">
+        <v>0.01844122230099792</v>
+      </c>
+      <c r="W44">
+        <v>0.2063712751117795</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.05423888912058206</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1933595782533702</v>
+      </c>
+      <c r="C45">
+        <v>1429.028152417533</v>
+      </c>
+      <c r="D45">
+        <v>4455.711923659775</v>
+      </c>
+      <c r="E45">
+        <v>2966.223838120748</v>
+      </c>
+      <c r="F45">
+        <v>3908.983771242243</v>
+      </c>
+      <c r="G45">
+        <v>882.3</v>
+      </c>
+      <c r="H45">
+        <v>8147.9</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>61.24</v>
+      </c>
+      <c r="K45">
+        <v>17.7</v>
+      </c>
+      <c r="L45">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M45">
+        <v>821.8580319291809</v>
+      </c>
+      <c r="N45">
+        <v>-778.318031929181</v>
+      </c>
+      <c r="O45">
+        <v>-264.6281308559215</v>
+      </c>
+      <c r="P45">
+        <v>-513.6899010732594</v>
+      </c>
+      <c r="Q45">
+        <v>-495.9899010732594</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1834757150163559</v>
+      </c>
+      <c r="T45">
+        <v>2.282920317159749</v>
+      </c>
+      <c r="U45">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V45">
+        <v>0.01801235666609099</v>
+      </c>
+      <c r="W45">
+        <v>0.2064614434745289</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.05297751960614994</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1953690634004703</v>
+      </c>
+      <c r="C46">
+        <v>1290.001318767301</v>
+      </c>
+      <c r="D46">
+        <v>4407.591689340758</v>
+      </c>
+      <c r="E46">
+        <v>3057.130437451963</v>
+      </c>
+      <c r="F46">
+        <v>3999.890370573458</v>
+      </c>
+      <c r="G46">
+        <v>882.3</v>
+      </c>
+      <c r="H46">
+        <v>8147.9</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>61.24</v>
+      </c>
+      <c r="K46">
+        <v>17.7</v>
+      </c>
+      <c r="L46">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M46">
+        <v>840.9710094159061</v>
+      </c>
+      <c r="N46">
+        <v>-797.4310094159061</v>
+      </c>
+      <c r="O46">
+        <v>-271.1265432014081</v>
+      </c>
+      <c r="P46">
+        <v>-526.304466214498</v>
+      </c>
+      <c r="Q46">
+        <v>-508.604466214498</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.186585995641648</v>
+      </c>
+      <c r="T46">
+        <v>2.323686751394744</v>
+      </c>
+      <c r="U46">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V46">
+        <v>0.01760298492367983</v>
+      </c>
+      <c r="W46">
+        <v>0.206547513275335</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.05177348506964652</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1973785485475703</v>
+      </c>
+      <c r="C47">
+        <v>1152.002745882432</v>
+      </c>
+      <c r="D47">
+        <v>4360.499715787104</v>
+      </c>
+      <c r="E47">
+        <v>3148.037036783177</v>
+      </c>
+      <c r="F47">
+        <v>4090.796969904673</v>
+      </c>
+      <c r="G47">
+        <v>882.3</v>
+      </c>
+      <c r="H47">
+        <v>8147.9</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>61.24</v>
+      </c>
+      <c r="K47">
+        <v>17.7</v>
+      </c>
+      <c r="L47">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M47">
+        <v>860.0839869026312</v>
+      </c>
+      <c r="N47">
+        <v>-816.5439869026312</v>
+      </c>
+      <c r="O47">
+        <v>-277.6249555468946</v>
+      </c>
+      <c r="P47">
+        <v>-538.9190313557366</v>
+      </c>
+      <c r="Q47">
+        <v>-521.2190313557365</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.189809377380587</v>
+      </c>
+      <c r="T47">
+        <v>2.365935601420103</v>
+      </c>
+      <c r="U47">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V47">
+        <v>0.01721180748093139</v>
+      </c>
+      <c r="W47">
+        <v>0.206629757751661</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.05062296317920989</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1993880336946703</v>
+      </c>
+      <c r="C48">
+        <v>1014.99982348186</v>
+      </c>
+      <c r="D48">
+        <v>4314.403392717748</v>
+      </c>
+      <c r="E48">
+        <v>3238.943636114393</v>
+      </c>
+      <c r="F48">
+        <v>4181.703569235888</v>
+      </c>
+      <c r="G48">
+        <v>882.3</v>
+      </c>
+      <c r="H48">
+        <v>8147.9</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>61.24</v>
+      </c>
+      <c r="K48">
+        <v>17.7</v>
+      </c>
+      <c r="L48">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M48">
+        <v>879.1969643893564</v>
+      </c>
+      <c r="N48">
+        <v>-835.6569643893564</v>
+      </c>
+      <c r="O48">
+        <v>-284.1233678923812</v>
+      </c>
+      <c r="P48">
+        <v>-551.5335964969752</v>
+      </c>
+      <c r="Q48">
+        <v>-533.8335964969751</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1931521436283757</v>
+      </c>
+      <c r="T48">
+        <v>2.409749223668624</v>
+      </c>
+      <c r="U48">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V48">
+        <v>0.01683763775308506</v>
+      </c>
+      <c r="W48">
+        <v>0.2067084263811901</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.04952246397966187</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.2013975188417703</v>
+      </c>
+      <c r="C49">
+        <v>878.9613057972119</v>
+      </c>
+      <c r="D49">
+        <v>4269.271474364315</v>
+      </c>
+      <c r="E49">
+        <v>3329.850235445608</v>
+      </c>
+      <c r="F49">
+        <v>4272.610168567103</v>
+      </c>
+      <c r="G49">
+        <v>882.3</v>
+      </c>
+      <c r="H49">
+        <v>8147.9</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>61.24</v>
+      </c>
+      <c r="K49">
+        <v>17.7</v>
+      </c>
+      <c r="L49">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M49">
+        <v>898.3099418760816</v>
+      </c>
+      <c r="N49">
+        <v>-854.7699418760816</v>
+      </c>
+      <c r="O49">
+        <v>-290.6217802378678</v>
+      </c>
+      <c r="P49">
+        <v>-564.1481616382139</v>
+      </c>
+      <c r="Q49">
+        <v>-546.4481616382138</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1966210519987223</v>
+      </c>
+      <c r="T49">
+        <v>2.455216190152937</v>
+      </c>
+      <c r="U49">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V49">
+        <v>0.01647939014131729</v>
+      </c>
+      <c r="W49">
+        <v>0.2067837474094627</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.04846879453328612</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.2034070039888703</v>
+      </c>
+      <c r="C50">
+        <v>743.8572409424742</v>
+      </c>
+      <c r="D50">
+        <v>4225.074008840791</v>
+      </c>
+      <c r="E50">
+        <v>3420.756834776822</v>
+      </c>
+      <c r="F50">
+        <v>4363.516767898317</v>
+      </c>
+      <c r="G50">
+        <v>882.3</v>
+      </c>
+      <c r="H50">
+        <v>8147.9</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>61.24</v>
+      </c>
+      <c r="K50">
+        <v>17.7</v>
+      </c>
+      <c r="L50">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M50">
+        <v>917.4229193628065</v>
+      </c>
+      <c r="N50">
+        <v>-873.8829193628065</v>
+      </c>
+      <c r="O50">
+        <v>-297.1201925833543</v>
+      </c>
+      <c r="P50">
+        <v>-576.7627267794524</v>
+      </c>
+      <c r="Q50">
+        <v>-559.0627267794523</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.2002233799217747</v>
+      </c>
+      <c r="T50">
+        <v>2.502431886117416</v>
+      </c>
+      <c r="U50">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V50">
+        <v>0.01613606951337318</v>
+      </c>
+      <c r="W50">
+        <v>0.2068559300615572</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.04745902798050927</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.2054164891359703</v>
+      </c>
+      <c r="C51">
+        <v>609.6589046259123</v>
+      </c>
+      <c r="D51">
+        <v>4181.782271855444</v>
+      </c>
+      <c r="E51">
+        <v>3511.663434108037</v>
+      </c>
+      <c r="F51">
+        <v>4454.423367229532</v>
+      </c>
+      <c r="G51">
+        <v>882.3</v>
+      </c>
+      <c r="H51">
+        <v>8147.9</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>61.24</v>
+      </c>
+      <c r="K51">
+        <v>17.7</v>
+      </c>
+      <c r="L51">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M51">
+        <v>936.5358968495317</v>
+      </c>
+      <c r="N51">
+        <v>-892.9958968495317</v>
+      </c>
+      <c r="O51">
+        <v>-303.6186049288408</v>
+      </c>
+      <c r="P51">
+        <v>-589.3772919206909</v>
+      </c>
+      <c r="Q51">
+        <v>-571.6772919206909</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.2039669756065154</v>
+      </c>
+      <c r="T51">
+        <v>2.551499178002072</v>
+      </c>
+      <c r="U51">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V51">
+        <v>0.01580676197228393</v>
+      </c>
+      <c r="W51">
+        <v>0.2069251664829541</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.04649047638907033</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.2074259742830704</v>
+      </c>
+      <c r="C52">
+        <v>476.3387378959378</v>
+      </c>
+      <c r="D52">
+        <v>4139.368704456685</v>
+      </c>
+      <c r="E52">
+        <v>3602.570033439252</v>
+      </c>
+      <c r="F52">
+        <v>4545.329966560747</v>
+      </c>
+      <c r="G52">
+        <v>882.3</v>
+      </c>
+      <c r="H52">
+        <v>8147.9</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>61.24</v>
+      </c>
+      <c r="K52">
+        <v>17.7</v>
+      </c>
+      <c r="L52">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M52">
+        <v>955.6488743362569</v>
+      </c>
+      <c r="N52">
+        <v>-912.1088743362569</v>
+      </c>
+      <c r="O52">
+        <v>-310.1170172743274</v>
+      </c>
+      <c r="P52">
+        <v>-601.9918570619295</v>
+      </c>
+      <c r="Q52">
+        <v>-584.2918570619295</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.2078603151186457</v>
+      </c>
+      <c r="T52">
+        <v>2.602529161562114</v>
+      </c>
+      <c r="U52">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V52">
+        <v>0.01549062673283825</v>
+      </c>
+      <c r="W52">
+        <v>0.206991633447495</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.0455606668612889</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.2094354594301704</v>
+      </c>
+      <c r="C53">
+        <v>343.8702886373812</v>
+      </c>
+      <c r="D53">
+        <v>4097.806854529344</v>
+      </c>
+      <c r="E53">
+        <v>3693.476632770467</v>
+      </c>
+      <c r="F53">
+        <v>4636.236565891963</v>
+      </c>
+      <c r="G53">
+        <v>882.3</v>
+      </c>
+      <c r="H53">
+        <v>8147.9</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>61.24</v>
+      </c>
+      <c r="K53">
+        <v>17.7</v>
+      </c>
+      <c r="L53">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M53">
+        <v>974.7618518229821</v>
+      </c>
+      <c r="N53">
+        <v>-931.2218518229821</v>
+      </c>
+      <c r="O53">
+        <v>-316.6154296198139</v>
+      </c>
+      <c r="P53">
+        <v>-614.6064222031682</v>
+      </c>
+      <c r="Q53">
+        <v>-596.9064222031682</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.2119125664475977</v>
+      </c>
+      <c r="T53">
+        <v>2.655642001593993</v>
+      </c>
+      <c r="U53">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V53">
+        <v>0.01518688895376299</v>
+      </c>
+      <c r="W53">
+        <v>0.2070554938644069</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.04466732045224409</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.2114449445772704</v>
+      </c>
+      <c r="C54">
+        <v>212.2281565572202</v>
+      </c>
+      <c r="D54">
+        <v>4057.071321780398</v>
+      </c>
+      <c r="E54">
+        <v>3784.383232101683</v>
+      </c>
+      <c r="F54">
+        <v>4727.143165223178</v>
+      </c>
+      <c r="G54">
+        <v>882.3</v>
+      </c>
+      <c r="H54">
+        <v>8147.9</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>61.24</v>
+      </c>
+      <c r="K54">
+        <v>17.7</v>
+      </c>
+      <c r="L54">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M54">
+        <v>993.8748293097073</v>
+      </c>
+      <c r="N54">
+        <v>-950.3348293097073</v>
+      </c>
+      <c r="O54">
+        <v>-323.1138419653005</v>
+      </c>
+      <c r="P54">
+        <v>-627.2209873444068</v>
+      </c>
+      <c r="Q54">
+        <v>-609.5209873444068</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.2161336615819226</v>
+      </c>
+      <c r="T54">
+        <v>2.710967876627202</v>
+      </c>
+      <c r="U54">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V54">
+        <v>0.01489483339695986</v>
+      </c>
+      <c r="W54">
+        <v>0.2071168981114375</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.04380833352047009</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.2134544297243704</v>
+      </c>
+      <c r="C55">
+        <v>81.3879414193334</v>
+      </c>
+      <c r="D55">
+        <v>4017.137705973726</v>
+      </c>
+      <c r="E55">
+        <v>3875.289831432898</v>
+      </c>
+      <c r="F55">
+        <v>4818.049764554393</v>
+      </c>
+      <c r="G55">
+        <v>882.3</v>
+      </c>
+      <c r="H55">
+        <v>8147.9</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>61.24</v>
+      </c>
+      <c r="K55">
+        <v>17.7</v>
+      </c>
+      <c r="L55">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M55">
+        <v>1012.987806796432</v>
+      </c>
+      <c r="N55">
+        <v>-969.4478067964325</v>
+      </c>
+      <c r="O55">
+        <v>-329.6122543107871</v>
+      </c>
+      <c r="P55">
+        <v>-639.8355524856454</v>
+      </c>
+      <c r="Q55">
+        <v>-622.1355524856453</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.2205343777857933</v>
+      </c>
+      <c r="T55">
+        <v>2.768648044215015</v>
+      </c>
+      <c r="U55">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V55">
+        <v>0.01461379880456438</v>
+      </c>
+      <c r="W55">
+        <v>0.2071759852170708</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.04298176118989516</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.2154639148714704</v>
+      </c>
+      <c r="C56">
+        <v>-48.67380569340366</v>
+      </c>
+      <c r="D56">
+        <v>3977.982558192203</v>
+      </c>
+      <c r="E56">
+        <v>3966.196430764112</v>
+      </c>
+      <c r="F56">
+        <v>4908.956363885607</v>
+      </c>
+      <c r="G56">
+        <v>882.3</v>
+      </c>
+      <c r="H56">
+        <v>8147.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>61.24</v>
+      </c>
+      <c r="K56">
+        <v>17.7</v>
+      </c>
+      <c r="L56">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M56">
+        <v>1032.100784283158</v>
+      </c>
+      <c r="N56">
+        <v>-988.5607842831575</v>
+      </c>
+      <c r="O56">
+        <v>-336.1106666562736</v>
+      </c>
+      <c r="P56">
+        <v>-652.450117626884</v>
+      </c>
+      <c r="Q56">
+        <v>-634.7501176268839</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2251264294767888</v>
+      </c>
+      <c r="T56">
+        <v>2.828836045176211</v>
+      </c>
+      <c r="U56">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V56">
+        <v>0.01434317290077616</v>
+      </c>
+      <c r="W56">
+        <v>0.2072328839113844</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.04218580264934157</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.2174734000185704</v>
+      </c>
+      <c r="C57">
+        <v>-177.9796282942434</v>
+      </c>
+      <c r="D57">
+        <v>3939.583334922579</v>
+      </c>
+      <c r="E57">
+        <v>4057.103030095327</v>
+      </c>
+      <c r="F57">
+        <v>4999.862963216822</v>
+      </c>
+      <c r="G57">
+        <v>882.3</v>
+      </c>
+      <c r="H57">
+        <v>8147.9</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>61.24</v>
+      </c>
+      <c r="K57">
+        <v>17.7</v>
+      </c>
+      <c r="L57">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M57">
+        <v>1051.213761769883</v>
+      </c>
+      <c r="N57">
+        <v>-1007.673761769883</v>
+      </c>
+      <c r="O57">
+        <v>-342.6090790017602</v>
+      </c>
+      <c r="P57">
+        <v>-665.0646827681226</v>
+      </c>
+      <c r="Q57">
+        <v>-647.3646827681225</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2299225723540508</v>
+      </c>
+      <c r="T57">
+        <v>2.891699068402348</v>
+      </c>
+      <c r="U57">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V57">
+        <v>0.01408238793894386</v>
+      </c>
+      <c r="W57">
+        <v>0.2072877135622683</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.04141878805571719</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.2194828851656704</v>
+      </c>
+      <c r="C58">
+        <v>-306.5512077738176</v>
+      </c>
+      <c r="D58">
+        <v>3901.91835477422</v>
+      </c>
+      <c r="E58">
+        <v>4148.009629426542</v>
+      </c>
+      <c r="F58">
+        <v>5090.769562548037</v>
+      </c>
+      <c r="G58">
+        <v>882.3</v>
+      </c>
+      <c r="H58">
+        <v>8147.9</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>61.24</v>
+      </c>
+      <c r="K58">
+        <v>17.7</v>
+      </c>
+      <c r="L58">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M58">
+        <v>1070.326739256608</v>
+      </c>
+      <c r="N58">
+        <v>-1026.786739256608</v>
+      </c>
+      <c r="O58">
+        <v>-349.1074913472467</v>
+      </c>
+      <c r="P58">
+        <v>-677.6792479093613</v>
+      </c>
+      <c r="Q58">
+        <v>-659.9792479093612</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2349367217257338</v>
+      </c>
+      <c r="T58">
+        <v>2.957419501775129</v>
+      </c>
+      <c r="U58">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V58">
+        <v>0.01383091672574844</v>
+      </c>
+      <c r="W58">
+        <v>0.207340585011335</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.04067916684043649</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.2214923703127705</v>
+      </c>
+      <c r="C59">
+        <v>-434.4094042221132</v>
+      </c>
+      <c r="D59">
+        <v>3864.966757657139</v>
+      </c>
+      <c r="E59">
+        <v>4238.916228757757</v>
+      </c>
+      <c r="F59">
+        <v>5181.676161879253</v>
+      </c>
+      <c r="G59">
+        <v>882.3</v>
+      </c>
+      <c r="H59">
+        <v>8147.9</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>61.24</v>
+      </c>
+      <c r="K59">
+        <v>17.7</v>
+      </c>
+      <c r="L59">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M59">
+        <v>1089.439716743333</v>
+      </c>
+      <c r="N59">
+        <v>-1045.899716743333</v>
+      </c>
+      <c r="O59">
+        <v>-355.6059036927333</v>
+      </c>
+      <c r="P59">
+        <v>-690.2938130505997</v>
+      </c>
+      <c r="Q59">
+        <v>-672.5938130505997</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2401840873472625</v>
+      </c>
+      <c r="T59">
+        <v>3.02619669949083</v>
+      </c>
+      <c r="U59">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V59">
+        <v>0.0135882690638932</v>
+      </c>
+      <c r="W59">
+        <v>0.2073916013218379</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.0399654972467447</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.2235018554598704</v>
+      </c>
+      <c r="C60">
+        <v>-561.5742949526857</v>
+      </c>
+      <c r="D60">
+        <v>3828.708466257781</v>
+      </c>
+      <c r="E60">
+        <v>4329.822828088972</v>
+      </c>
+      <c r="F60">
+        <v>5272.582761210467</v>
+      </c>
+      <c r="G60">
+        <v>882.3</v>
+      </c>
+      <c r="H60">
+        <v>8147.9</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>61.24</v>
+      </c>
+      <c r="K60">
+        <v>17.7</v>
+      </c>
+      <c r="L60">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M60">
+        <v>1108.552694230058</v>
+      </c>
+      <c r="N60">
+        <v>-1065.012694230058</v>
+      </c>
+      <c r="O60">
+        <v>-362.1043160382198</v>
+      </c>
+      <c r="P60">
+        <v>-702.9083781918382</v>
+      </c>
+      <c r="Q60">
+        <v>-685.2083781918382</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2456813275221973</v>
+      </c>
+      <c r="T60">
+        <v>3.098249001859659</v>
+      </c>
+      <c r="U60">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V60">
+        <v>0.01335398856279159</v>
+      </c>
+      <c r="W60">
+        <v>0.20744085844922</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.03927643694938698</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.2255113406069705</v>
+      </c>
+      <c r="C61">
+        <v>-688.0652108785926</v>
+      </c>
+      <c r="D61">
+        <v>3793.124149663089</v>
+      </c>
+      <c r="E61">
+        <v>4420.729427420187</v>
+      </c>
+      <c r="F61">
+        <v>5363.489360541682</v>
+      </c>
+      <c r="G61">
+        <v>882.3</v>
+      </c>
+      <c r="H61">
+        <v>8147.9</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>61.24</v>
+      </c>
+      <c r="K61">
+        <v>17.7</v>
+      </c>
+      <c r="L61">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M61">
+        <v>1127.665671716783</v>
+      </c>
+      <c r="N61">
+        <v>-1084.125671716783</v>
+      </c>
+      <c r="O61">
+        <v>-368.6027283837063</v>
+      </c>
+      <c r="P61">
+        <v>-715.5229433330769</v>
+      </c>
+      <c r="Q61">
+        <v>-697.8229433330769</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.251446725754446</v>
+      </c>
+      <c r="T61">
+        <v>3.173816050685504</v>
+      </c>
+      <c r="U61">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V61">
+        <v>0.01312764977359174</v>
+      </c>
+      <c r="W61">
+        <v>0.2074884458434705</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.03861073462821096</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.2275208257540705</v>
+      </c>
+      <c r="C62">
+        <v>-813.9007708785039</v>
+      </c>
+      <c r="D62">
+        <v>3758.195188994393</v>
+      </c>
+      <c r="E62">
+        <v>4511.636026751402</v>
+      </c>
+      <c r="F62">
+        <v>5454.395959872897</v>
+      </c>
+      <c r="G62">
+        <v>882.3</v>
+      </c>
+      <c r="H62">
+        <v>8147.9</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>61.24</v>
+      </c>
+      <c r="K62">
+        <v>17.7</v>
+      </c>
+      <c r="L62">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M62">
+        <v>1146.778649203508</v>
+      </c>
+      <c r="N62">
+        <v>-1103.238649203508</v>
+      </c>
+      <c r="O62">
+        <v>-375.1011407291929</v>
+      </c>
+      <c r="P62">
+        <v>-728.1375084743156</v>
+      </c>
+      <c r="Q62">
+        <v>-710.4375084743156</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2575003938983071</v>
+      </c>
+      <c r="T62">
+        <v>3.253161451952642</v>
+      </c>
+      <c r="U62">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V62">
+        <v>0.01290885561069854</v>
+      </c>
+      <c r="W62">
+        <v>0.207534446991246</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.03796722238440742</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.2295303109011705</v>
+      </c>
+      <c r="C63">
+        <v>-939.0989142813969</v>
+      </c>
+      <c r="D63">
+        <v>3723.903644922715</v>
+      </c>
+      <c r="E63">
+        <v>4602.542626082616</v>
+      </c>
+      <c r="F63">
+        <v>5545.302559204111</v>
+      </c>
+      <c r="G63">
+        <v>882.3</v>
+      </c>
+      <c r="H63">
+        <v>8147.9</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>61.24</v>
+      </c>
+      <c r="K63">
+        <v>17.7</v>
+      </c>
+      <c r="L63">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M63">
+        <v>1165.891626690233</v>
+      </c>
+      <c r="N63">
+        <v>-1122.351626690233</v>
+      </c>
+      <c r="O63">
+        <v>-381.5995530746794</v>
+      </c>
+      <c r="P63">
+        <v>-740.7520736155541</v>
+      </c>
+      <c r="Q63">
+        <v>-723.052073615554</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2638645065623663</v>
+      </c>
+      <c r="T63">
+        <v>3.336575848156556</v>
+      </c>
+      <c r="U63">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V63">
+        <v>0.0126972350269166</v>
+      </c>
+      <c r="W63">
+        <v>0.2075789399046683</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.03734480890269587</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2315397960482705</v>
+      </c>
+      <c r="C64">
+        <v>-1063.676931588889</v>
+      </c>
+      <c r="D64">
+        <v>3690.232226946438</v>
+      </c>
+      <c r="E64">
+        <v>4693.449225413831</v>
+      </c>
+      <c r="F64">
+        <v>5636.209158535326</v>
+      </c>
+      <c r="G64">
+        <v>882.3</v>
+      </c>
+      <c r="H64">
+        <v>8147.9</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>61.24</v>
+      </c>
+      <c r="K64">
+        <v>17.7</v>
+      </c>
+      <c r="L64">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M64">
+        <v>1185.004604176959</v>
+      </c>
+      <c r="N64">
+        <v>-1141.464604176959</v>
+      </c>
+      <c r="O64">
+        <v>-388.097965420166</v>
+      </c>
+      <c r="P64">
+        <v>-753.3666387567926</v>
+      </c>
+      <c r="Q64">
+        <v>-735.6666387567925</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2705635725245338</v>
+      </c>
+      <c r="T64">
+        <v>3.424380475739623</v>
+      </c>
+      <c r="U64">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V64">
+        <v>0.01249244091357924</v>
+      </c>
+      <c r="W64">
+        <v>0.2076219975628188</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.03674247327523306</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2335492811953705</v>
+      </c>
+      <c r="C65">
+        <v>-1187.651493545759</v>
+      </c>
+      <c r="D65">
+        <v>3657.164264320782</v>
+      </c>
+      <c r="E65">
+        <v>4784.355824745046</v>
+      </c>
+      <c r="F65">
+        <v>5727.115757866542</v>
+      </c>
+      <c r="G65">
+        <v>882.3</v>
+      </c>
+      <c r="H65">
+        <v>8147.9</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>61.24</v>
+      </c>
+      <c r="K65">
+        <v>17.7</v>
+      </c>
+      <c r="L65">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M65">
+        <v>1204.117581663684</v>
+      </c>
+      <c r="N65">
+        <v>-1160.577581663684</v>
+      </c>
+      <c r="O65">
+        <v>-394.5963777656525</v>
+      </c>
+      <c r="P65">
+        <v>-765.9812038980313</v>
+      </c>
+      <c r="Q65">
+        <v>-748.2812038980312</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.277624750160332</v>
+      </c>
+      <c r="T65">
+        <v>3.516931299408261</v>
+      </c>
+      <c r="U65">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V65">
+        <v>0.01229414820066528</v>
+      </c>
+      <c r="W65">
+        <v>0.2076636883111868</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.03615925941372133</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2355587663424705</v>
+      </c>
+      <c r="C66">
+        <v>-1311.038678661367</v>
+      </c>
+      <c r="D66">
+        <v>3624.683678536389</v>
+      </c>
+      <c r="E66">
+        <v>4875.262424076262</v>
+      </c>
+      <c r="F66">
+        <v>5818.022357197757</v>
+      </c>
+      <c r="G66">
+        <v>882.3</v>
+      </c>
+      <c r="H66">
+        <v>8147.9</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>61.24</v>
+      </c>
+      <c r="K66">
+        <v>17.7</v>
+      </c>
+      <c r="L66">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M66">
+        <v>1223.230559150409</v>
+      </c>
+      <c r="N66">
+        <v>-1179.690559150409</v>
+      </c>
+      <c r="O66">
+        <v>-401.094790111139</v>
+      </c>
+      <c r="P66">
+        <v>-778.59576903927</v>
+      </c>
+      <c r="Q66">
+        <v>-760.8957690392699</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2850782154425635</v>
+      </c>
+      <c r="T66">
+        <v>3.614623835502936</v>
+      </c>
+      <c r="U66">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V66">
+        <v>0.01210205213502988</v>
+      </c>
+      <c r="W66">
+        <v>0.2077040762236682</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.03559427098538193</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2375682514895706</v>
+      </c>
+      <c r="C67">
+        <v>-1433.853999277406</v>
+      </c>
+      <c r="D67">
+        <v>3592.774957251566</v>
+      </c>
+      <c r="E67">
+        <v>4966.169023407477</v>
+      </c>
+      <c r="F67">
+        <v>5908.928956528972</v>
+      </c>
+      <c r="G67">
+        <v>882.3</v>
+      </c>
+      <c r="H67">
+        <v>8147.9</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>61.24</v>
+      </c>
+      <c r="K67">
+        <v>17.7</v>
+      </c>
+      <c r="L67">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M67">
+        <v>1242.343536637134</v>
+      </c>
+      <c r="N67">
+        <v>-1198.803536637134</v>
+      </c>
+      <c r="O67">
+        <v>-407.5932024566256</v>
+      </c>
+      <c r="P67">
+        <v>-791.2103341805084</v>
+      </c>
+      <c r="Q67">
+        <v>-773.5103341805084</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2929575930266368</v>
+      </c>
+      <c r="T67">
+        <v>3.717898802231592</v>
+      </c>
+      <c r="U67">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V67">
+        <v>0.01191586671756788</v>
+      </c>
+      <c r="W67">
+        <v>0.2077432214311503</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.03504666681637614</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2395777366366705</v>
+      </c>
+      <c r="C68">
+        <v>-1556.112426270802</v>
+      </c>
+      <c r="D68">
+        <v>3561.423129589386</v>
+      </c>
+      <c r="E68">
+        <v>5057.075622738692</v>
+      </c>
+      <c r="F68">
+        <v>5999.835555860187</v>
+      </c>
+      <c r="G68">
+        <v>882.3</v>
+      </c>
+      <c r="H68">
+        <v>8147.9</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>61.24</v>
+      </c>
+      <c r="K68">
+        <v>17.7</v>
+      </c>
+      <c r="L68">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M68">
+        <v>1261.456514123859</v>
+      </c>
+      <c r="N68">
+        <v>-1217.916514123859</v>
+      </c>
+      <c r="O68">
+        <v>-414.0916148021122</v>
+      </c>
+      <c r="P68">
+        <v>-803.8248993217471</v>
+      </c>
+      <c r="Q68">
+        <v>-786.1248993217471</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.3013004634097731</v>
+      </c>
+      <c r="T68">
+        <v>3.827248767003108</v>
+      </c>
+      <c r="U68">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V68">
+        <v>0.01173532328245322</v>
+      </c>
+      <c r="W68">
+        <v>0.2077811804202238</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.03451565671309764</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2415872217837706</v>
+      </c>
+      <c r="C69">
+        <v>-1677.828412474404</v>
+      </c>
+      <c r="D69">
+        <v>3530.613742716998</v>
+      </c>
+      <c r="E69">
+        <v>5147.982222069907</v>
+      </c>
+      <c r="F69">
+        <v>6090.742155191402</v>
+      </c>
+      <c r="G69">
+        <v>882.3</v>
+      </c>
+      <c r="H69">
+        <v>8147.9</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>61.24</v>
+      </c>
+      <c r="K69">
+        <v>17.7</v>
+      </c>
+      <c r="L69">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M69">
+        <v>1280.569491610584</v>
+      </c>
+      <c r="N69">
+        <v>-1237.029491610585</v>
+      </c>
+      <c r="O69">
+        <v>-420.5900271475987</v>
+      </c>
+      <c r="P69">
+        <v>-816.4394644629858</v>
+      </c>
+      <c r="Q69">
+        <v>-798.7394644629858</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.3101489623009784</v>
+      </c>
+      <c r="T69">
+        <v>3.943226002366839</v>
+      </c>
+      <c r="U69">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V69">
+        <v>0.01156016920361063</v>
+      </c>
+      <c r="W69">
+        <v>0.2078180063051459</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.03400049765767832</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2435967069308706</v>
+      </c>
+      <c r="C70">
+        <v>-1799.01591489245</v>
+      </c>
+      <c r="D70">
+        <v>3500.332839630167</v>
+      </c>
+      <c r="E70">
+        <v>5238.888821401122</v>
+      </c>
+      <c r="F70">
+        <v>6181.648754522617</v>
+      </c>
+      <c r="G70">
+        <v>882.3</v>
+      </c>
+      <c r="H70">
+        <v>8147.9</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>61.24</v>
+      </c>
+      <c r="K70">
+        <v>17.7</v>
+      </c>
+      <c r="L70">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M70">
+        <v>1299.68246909731</v>
+      </c>
+      <c r="N70">
+        <v>-1256.14246909731</v>
+      </c>
+      <c r="O70">
+        <v>-427.0884394930853</v>
+      </c>
+      <c r="P70">
+        <v>-829.0540296042243</v>
+      </c>
+      <c r="Q70">
+        <v>-811.3540296042243</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.3195504923728839</v>
+      </c>
+      <c r="T70">
+        <v>4.066451814940803</v>
+      </c>
+      <c r="U70">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V70">
+        <v>0.01139016671532224</v>
+      </c>
+      <c r="W70">
+        <v>0.2078537490758055</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.03350049033918301</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2456061920779706</v>
+      </c>
+      <c r="C71">
+        <v>-1919.688415782529</v>
+      </c>
+      <c r="D71">
+        <v>3470.566938071303</v>
+      </c>
+      <c r="E71">
+        <v>5329.795420732336</v>
+      </c>
+      <c r="F71">
+        <v>6272.555353853832</v>
+      </c>
+      <c r="G71">
+        <v>882.3</v>
+      </c>
+      <c r="H71">
+        <v>8147.9</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>61.24</v>
+      </c>
+      <c r="K71">
+        <v>17.7</v>
+      </c>
+      <c r="L71">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M71">
+        <v>1318.795446584035</v>
+      </c>
+      <c r="N71">
+        <v>-1275.255446584035</v>
+      </c>
+      <c r="O71">
+        <v>-433.5868518385718</v>
+      </c>
+      <c r="P71">
+        <v>-841.6685947454628</v>
+      </c>
+      <c r="Q71">
+        <v>-823.9685947454627</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.3295585727720092</v>
+      </c>
+      <c r="T71">
+        <v>4.197627679938893</v>
+      </c>
+      <c r="U71">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V71">
+        <v>0.01122509183539003</v>
+      </c>
+      <c r="W71">
+        <v>0.2078884558241272</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.03301497598644121</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2476156772250706</v>
+      </c>
+      <c r="C72">
+        <v>-2039.85894267099</v>
+      </c>
+      <c r="D72">
+        <v>3441.303010514056</v>
+      </c>
+      <c r="E72">
+        <v>5420.702020063552</v>
+      </c>
+      <c r="F72">
+        <v>6363.461953185047</v>
+      </c>
+      <c r="G72">
+        <v>882.3</v>
+      </c>
+      <c r="H72">
+        <v>8147.9</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>61.24</v>
+      </c>
+      <c r="K72">
+        <v>17.7</v>
+      </c>
+      <c r="L72">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M72">
+        <v>1337.90842407076</v>
+      </c>
+      <c r="N72">
+        <v>-1294.36842407076</v>
+      </c>
+      <c r="O72">
+        <v>-440.0852641840584</v>
+      </c>
+      <c r="P72">
+        <v>-854.2831598867015</v>
+      </c>
+      <c r="Q72">
+        <v>-836.5831598867014</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3402338585310762</v>
+      </c>
+      <c r="T72">
+        <v>4.337548602603523</v>
+      </c>
+      <c r="U72">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V72">
+        <v>0.01106473338059875</v>
+      </c>
+      <c r="W72">
+        <v>0.2079221709510682</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.03254333347234928</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2496251623721706</v>
+      </c>
+      <c r="C73">
+        <v>-2159.540087364166</v>
+      </c>
+      <c r="D73">
+        <v>3412.528465152095</v>
+      </c>
+      <c r="E73">
+        <v>5511.608619394766</v>
+      </c>
+      <c r="F73">
+        <v>6454.368552516261</v>
+      </c>
+      <c r="G73">
+        <v>882.3</v>
+      </c>
+      <c r="H73">
+        <v>8147.9</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>61.24</v>
+      </c>
+      <c r="K73">
+        <v>17.7</v>
+      </c>
+      <c r="L73">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M73">
+        <v>1357.021401557485</v>
+      </c>
+      <c r="N73">
+        <v>-1313.481401557485</v>
+      </c>
+      <c r="O73">
+        <v>-446.5836765295448</v>
+      </c>
+      <c r="P73">
+        <v>-866.8977250279399</v>
+      </c>
+      <c r="Q73">
+        <v>-849.1977250279399</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3516453708942167</v>
+      </c>
+      <c r="T73">
+        <v>4.487119244072609</v>
+      </c>
+      <c r="U73">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V73">
+        <v>0.01090889206537905</v>
+      </c>
+      <c r="W73">
+        <v>0.2079549363561236</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.03208497666287957</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2516346475192706</v>
+      </c>
+      <c r="C74">
+        <v>-2278.744024013742</v>
+      </c>
+      <c r="D74">
+        <v>3384.231127833734</v>
+      </c>
+      <c r="E74">
+        <v>5602.515218725981</v>
+      </c>
+      <c r="F74">
+        <v>6545.275151847476</v>
+      </c>
+      <c r="G74">
+        <v>882.3</v>
+      </c>
+      <c r="H74">
+        <v>8147.9</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>61.24</v>
+      </c>
+      <c r="K74">
+        <v>17.7</v>
+      </c>
+      <c r="L74">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M74">
+        <v>1376.13437904421</v>
+      </c>
+      <c r="N74">
+        <v>-1332.59437904421</v>
+      </c>
+      <c r="O74">
+        <v>-453.0820888750314</v>
+      </c>
+      <c r="P74">
+        <v>-879.5122901691785</v>
+      </c>
+      <c r="Q74">
+        <v>-861.8122901691785</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3638719912832959</v>
+      </c>
+      <c r="T74">
+        <v>4.647373502789488</v>
+      </c>
+      <c r="U74">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V74">
+        <v>0.01075737967558212</v>
+      </c>
+      <c r="W74">
+        <v>0.2079867916110386</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.03163935198700618</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2536441326663706</v>
+      </c>
+      <c r="C75">
+        <v>-2397.482526290714</v>
+      </c>
+      <c r="D75">
+        <v>3356.399224887977</v>
+      </c>
+      <c r="E75">
+        <v>5693.421818057196</v>
+      </c>
+      <c r="F75">
+        <v>6636.181751178691</v>
+      </c>
+      <c r="G75">
+        <v>882.3</v>
+      </c>
+      <c r="H75">
+        <v>8147.9</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>61.24</v>
+      </c>
+      <c r="K75">
+        <v>17.7</v>
+      </c>
+      <c r="L75">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M75">
+        <v>1395.247356530935</v>
+      </c>
+      <c r="N75">
+        <v>-1351.707356530935</v>
+      </c>
+      <c r="O75">
+        <v>-459.580501220518</v>
+      </c>
+      <c r="P75">
+        <v>-892.1268553104171</v>
+      </c>
+      <c r="Q75">
+        <v>-874.4268553104171</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3770042872567512</v>
+      </c>
+      <c r="T75">
+        <v>4.819498447337247</v>
+      </c>
+      <c r="U75">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V75">
+        <v>0.01061001831016318</v>
+      </c>
+      <c r="W75">
+        <v>0.2080177741192435</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.03120593620636225</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2556536178134706</v>
+      </c>
+      <c r="C76">
+        <v>-2515.76698371881</v>
+      </c>
+      <c r="D76">
+        <v>3329.021366791097</v>
+      </c>
+      <c r="E76">
+        <v>5784.328417388411</v>
+      </c>
+      <c r="F76">
+        <v>6727.088350509906</v>
+      </c>
+      <c r="G76">
+        <v>882.3</v>
+      </c>
+      <c r="H76">
+        <v>8147.9</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>61.24</v>
+      </c>
+      <c r="K76">
+        <v>17.7</v>
+      </c>
+      <c r="L76">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M76">
+        <v>1414.36033401766</v>
+      </c>
+      <c r="N76">
+        <v>-1370.82033401766</v>
+      </c>
+      <c r="O76">
+        <v>-466.0789135660045</v>
+      </c>
+      <c r="P76">
+        <v>-904.7414204516558</v>
+      </c>
+      <c r="Q76">
+        <v>-887.0414204516558</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3911467598435494</v>
+      </c>
+      <c r="T76">
+        <v>5.004863772234833</v>
+      </c>
+      <c r="U76">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V76">
+        <v>0.01046663968435017</v>
+      </c>
+      <c r="W76">
+        <v>0.2080479192623619</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.03078423436573574</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2576631029605707</v>
+      </c>
+      <c r="C77">
+        <v>-2633.608417215014</v>
+      </c>
+      <c r="D77">
+        <v>3302.086532626107</v>
+      </c>
+      <c r="E77">
+        <v>5875.235016719625</v>
+      </c>
+      <c r="F77">
+        <v>6817.994949841121</v>
+      </c>
+      <c r="G77">
+        <v>882.3</v>
+      </c>
+      <c r="H77">
+        <v>8147.9</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>61.24</v>
+      </c>
+      <c r="K77">
+        <v>17.7</v>
+      </c>
+      <c r="L77">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M77">
+        <v>1433.473311504385</v>
+      </c>
+      <c r="N77">
+        <v>-1389.933311504385</v>
+      </c>
+      <c r="O77">
+        <v>-472.577325911491</v>
+      </c>
+      <c r="P77">
+        <v>-917.3559855928943</v>
+      </c>
+      <c r="Q77">
+        <v>-899.6559855928942</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.4064206302372914</v>
+      </c>
+      <c r="T77">
+        <v>5.205058323124227</v>
+      </c>
+      <c r="U77">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V77">
+        <v>0.01032708448855883</v>
+      </c>
+      <c r="W77">
+        <v>0.2080772605349971</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.03037377790752593</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2596725881076707</v>
+      </c>
+      <c r="C78">
+        <v>-2751.017493881717</v>
+      </c>
+      <c r="D78">
+        <v>3275.584055290618</v>
+      </c>
+      <c r="E78">
+        <v>5966.141616050841</v>
+      </c>
+      <c r="F78">
+        <v>6908.901549172336</v>
+      </c>
+      <c r="G78">
+        <v>882.3</v>
+      </c>
+      <c r="H78">
+        <v>8147.9</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>61.24</v>
+      </c>
+      <c r="K78">
+        <v>17.7</v>
+      </c>
+      <c r="L78">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M78">
+        <v>1452.58628899111</v>
+      </c>
+      <c r="N78">
+        <v>-1409.04628899111</v>
+      </c>
+      <c r="O78">
+        <v>-479.0757382569776</v>
+      </c>
+      <c r="P78">
+        <v>-929.9705507341329</v>
+      </c>
+      <c r="Q78">
+        <v>-912.2705507341328</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.4229673231638452</v>
+      </c>
+      <c r="T78">
+        <v>5.421935753254403</v>
+      </c>
+      <c r="U78">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V78">
+        <v>0.0101912017979199</v>
+      </c>
+      <c r="W78">
+        <v>0.2081058296688787</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.02997412293505852</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2616820732547707</v>
+      </c>
+      <c r="C79">
+        <v>-2868.004541092207</v>
+      </c>
+      <c r="D79">
+        <v>3249.503607411344</v>
+      </c>
+      <c r="E79">
+        <v>6057.048215382056</v>
+      </c>
+      <c r="F79">
+        <v>6999.808148503551</v>
+      </c>
+      <c r="G79">
+        <v>882.3</v>
+      </c>
+      <c r="H79">
+        <v>8147.9</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>61.24</v>
+      </c>
+      <c r="K79">
+        <v>17.7</v>
+      </c>
+      <c r="L79">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M79">
+        <v>1471.699266477836</v>
+      </c>
+      <c r="N79">
+        <v>-1428.159266477836</v>
+      </c>
+      <c r="O79">
+        <v>-485.5741506024642</v>
+      </c>
+      <c r="P79">
+        <v>-942.5851158753715</v>
+      </c>
+      <c r="Q79">
+        <v>-924.8851158753714</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.4409528589535777</v>
+      </c>
+      <c r="T79">
+        <v>5.657672090352421</v>
+      </c>
+      <c r="U79">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V79">
+        <v>0.01005884852781705</v>
+      </c>
+      <c r="W79">
+        <v>0.2081336567473349</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.02958484861122657</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2636915584018708</v>
+      </c>
+      <c r="C80">
+        <v>-2984.579559908575</v>
+      </c>
+      <c r="D80">
+        <v>3223.835187926191</v>
+      </c>
+      <c r="E80">
+        <v>6147.954814713271</v>
+      </c>
+      <c r="F80">
+        <v>7090.714747834766</v>
+      </c>
+      <c r="G80">
+        <v>882.3</v>
+      </c>
+      <c r="H80">
+        <v>8147.9</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>61.24</v>
+      </c>
+      <c r="K80">
+        <v>17.7</v>
+      </c>
+      <c r="L80">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M80">
+        <v>1490.812243964561</v>
+      </c>
+      <c r="N80">
+        <v>-1447.272243964561</v>
+      </c>
+      <c r="O80">
+        <v>-492.0725629479507</v>
+      </c>
+      <c r="P80">
+        <v>-955.1996810166102</v>
+      </c>
+      <c r="Q80">
+        <v>-937.4996810166101</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4605734434514675</v>
+      </c>
+      <c r="T80">
+        <v>5.914839003550258</v>
+      </c>
+      <c r="U80">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V80">
+        <v>0.009929888931306571</v>
+      </c>
+      <c r="W80">
+        <v>0.2081607703109588</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.02920555568031347</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2657010435489707</v>
+      </c>
+      <c r="C81">
+        <v>-3100.752237868674</v>
+      </c>
+      <c r="D81">
+        <v>3198.569109297308</v>
+      </c>
+      <c r="E81">
+        <v>6238.861414044486</v>
+      </c>
+      <c r="F81">
+        <v>7181.621347165981</v>
+      </c>
+      <c r="G81">
+        <v>882.3</v>
+      </c>
+      <c r="H81">
+        <v>8147.9</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>61.24</v>
+      </c>
+      <c r="K81">
+        <v>17.7</v>
+      </c>
+      <c r="L81">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M81">
+        <v>1509.925221451286</v>
+      </c>
+      <c r="N81">
+        <v>-1466.385221451286</v>
+      </c>
+      <c r="O81">
+        <v>-498.5709752934373</v>
+      </c>
+      <c r="P81">
+        <v>-967.8142461578487</v>
+      </c>
+      <c r="Q81">
+        <v>-950.1142461578487</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.4820626550443946</v>
+      </c>
+      <c r="T81">
+        <v>6.196498003719318</v>
+      </c>
+      <c r="U81">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V81">
+        <v>0.009804194134707752</v>
+      </c>
+      <c r="W81">
+        <v>0.2081871974552505</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.02883586510208158</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2677105286960707</v>
+      </c>
+      <c r="C82">
+        <v>-3216.531961176448</v>
+      </c>
+      <c r="D82">
+        <v>3173.695985320749</v>
+      </c>
+      <c r="E82">
+        <v>6329.768013375701</v>
+      </c>
+      <c r="F82">
+        <v>7272.527946497196</v>
+      </c>
+      <c r="G82">
+        <v>882.3</v>
+      </c>
+      <c r="H82">
+        <v>8147.9</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>61.24</v>
+      </c>
+      <c r="K82">
+        <v>17.7</v>
+      </c>
+      <c r="L82">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M82">
+        <v>1529.038198938011</v>
+      </c>
+      <c r="N82">
+        <v>-1485.498198938011</v>
+      </c>
+      <c r="O82">
+        <v>-505.0693876389238</v>
+      </c>
+      <c r="P82">
+        <v>-980.4288112990873</v>
+      </c>
+      <c r="Q82">
+        <v>-962.7288112990873</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.5057007877966143</v>
+      </c>
+      <c r="T82">
+        <v>6.506322903905285</v>
+      </c>
+      <c r="U82">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V82">
+        <v>0.009681641708023905</v>
+      </c>
+      <c r="W82">
+        <v>0.2082129639209349</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.02847541678830556</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2697200138431707</v>
+      </c>
+      <c r="C83">
+        <v>-3331.927826327892</v>
+      </c>
+      <c r="D83">
+        <v>3149.20671950052</v>
+      </c>
+      <c r="E83">
+        <v>6420.674612706916</v>
+      </c>
+      <c r="F83">
+        <v>7363.434545828412</v>
+      </c>
+      <c r="G83">
+        <v>882.3</v>
+      </c>
+      <c r="H83">
+        <v>8147.9</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>61.24</v>
+      </c>
+      <c r="K83">
+        <v>17.7</v>
+      </c>
+      <c r="L83">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M83">
+        <v>1548.151176424736</v>
+      </c>
+      <c r="N83">
+        <v>-1504.611176424736</v>
+      </c>
+      <c r="O83">
+        <v>-511.5677999844104</v>
+      </c>
+      <c r="P83">
+        <v>-993.043376440326</v>
+      </c>
+      <c r="Q83">
+        <v>-975.343376440326</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.5318271450490677</v>
+      </c>
+      <c r="T83">
+        <v>6.848760951479247</v>
+      </c>
+      <c r="U83">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V83">
+        <v>0.009562115267184104</v>
+      </c>
+      <c r="W83">
+        <v>0.20823809417759</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.02812386843289438</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2717294989902708</v>
+      </c>
+      <c r="C84">
+        <v>-3446.948651202854</v>
+      </c>
+      <c r="D84">
+        <v>3125.092493956773</v>
+      </c>
+      <c r="E84">
+        <v>6511.581212038132</v>
+      </c>
+      <c r="F84">
+        <v>7454.341145159627</v>
+      </c>
+      <c r="G84">
+        <v>882.3</v>
+      </c>
+      <c r="H84">
+        <v>8147.9</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>61.24</v>
+      </c>
+      <c r="K84">
+        <v>17.7</v>
+      </c>
+      <c r="L84">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M84">
+        <v>1567.264153911462</v>
+      </c>
+      <c r="N84">
+        <v>-1523.724153911462</v>
+      </c>
+      <c r="O84">
+        <v>-518.066212329897</v>
+      </c>
+      <c r="P84">
+        <v>-1005.657941581565</v>
+      </c>
+      <c r="Q84">
+        <v>-987.9579415815646</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.5608564308851272</v>
+      </c>
+      <c r="T84">
+        <v>7.229247671005873</v>
+      </c>
+      <c r="U84">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V84">
+        <v>0.009445504105389175</v>
+      </c>
+      <c r="W84">
+        <v>0.208262611501156</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.02778089442761522</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2737389841373707</v>
+      </c>
+      <c r="C85">
+        <v>-3561.602985651132</v>
+      </c>
+      <c r="D85">
+        <v>3101.344758839708</v>
+      </c>
+      <c r="E85">
+        <v>6602.487811369346</v>
+      </c>
+      <c r="F85">
+        <v>7545.247744490841</v>
+      </c>
+      <c r="G85">
+        <v>882.3</v>
+      </c>
+      <c r="H85">
+        <v>8147.9</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>61.24</v>
+      </c>
+      <c r="K85">
+        <v>17.7</v>
+      </c>
+      <c r="L85">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M85">
+        <v>1586.377131398187</v>
+      </c>
+      <c r="N85">
+        <v>-1542.837131398187</v>
+      </c>
+      <c r="O85">
+        <v>-524.5646246753835</v>
+      </c>
+      <c r="P85">
+        <v>-1018.272506722803</v>
+      </c>
+      <c r="Q85">
+        <v>-1000.572506722803</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5933009268195464</v>
+      </c>
+      <c r="T85">
+        <v>7.654497534006219</v>
+      </c>
+      <c r="U85">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V85">
+        <v>0.00933170285110738</v>
+      </c>
+      <c r="W85">
+        <v>0.2082865380458409</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.0274461848561981</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2757484692844708</v>
+      </c>
+      <c r="C86">
+        <v>-3675.899121599542</v>
+      </c>
+      <c r="D86">
+        <v>3077.955222222513</v>
+      </c>
+      <c r="E86">
+        <v>6693.39441070056</v>
+      </c>
+      <c r="F86">
+        <v>7636.154343822055</v>
+      </c>
+      <c r="G86">
+        <v>882.3</v>
+      </c>
+      <c r="H86">
+        <v>8147.9</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>61.24</v>
+      </c>
+      <c r="K86">
+        <v>17.7</v>
+      </c>
+      <c r="L86">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M86">
+        <v>1605.490108884911</v>
+      </c>
+      <c r="N86">
+        <v>-1561.950108884912</v>
+      </c>
+      <c r="O86">
+        <v>-531.06303702087</v>
+      </c>
+      <c r="P86">
+        <v>-1030.887071864041</v>
+      </c>
+      <c r="Q86">
+        <v>-1013.187071864041</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.6298009847457677</v>
+      </c>
+      <c r="T86">
+        <v>8.132903629881604</v>
+      </c>
+      <c r="U86">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V86">
+        <v>0.009220611150498961</v>
+      </c>
+      <c r="W86">
+        <v>0.2083098949108904</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.02711944456029103</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2777579544315708</v>
+      </c>
+      <c r="C87">
+        <v>-3789.845102705052</v>
+      </c>
+      <c r="D87">
+        <v>3054.915840448218</v>
+      </c>
+      <c r="E87">
+        <v>6784.301010031775</v>
+      </c>
+      <c r="F87">
+        <v>7727.06094315327</v>
+      </c>
+      <c r="G87">
+        <v>882.3</v>
+      </c>
+      <c r="H87">
+        <v>8147.9</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>61.24</v>
+      </c>
+      <c r="K87">
+        <v>17.7</v>
+      </c>
+      <c r="L87">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M87">
+        <v>1624.603086371637</v>
+      </c>
+      <c r="N87">
+        <v>-1581.063086371637</v>
+      </c>
+      <c r="O87">
+        <v>-537.5614493663566</v>
+      </c>
+      <c r="P87">
+        <v>-1043.50163700528</v>
+      </c>
+      <c r="Q87">
+        <v>-1025.80163700528</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.6711677170621523</v>
+      </c>
+      <c r="T87">
+        <v>8.675097205207043</v>
+      </c>
+      <c r="U87">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V87">
+        <v>0.009112133372257795</v>
+      </c>
+      <c r="W87">
+        <v>0.2083327022026446</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.02680039227134645</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2797674395786708</v>
+      </c>
+      <c r="C88">
+        <v>-3903.448733577602</v>
+      </c>
+      <c r="D88">
+        <v>3032.218808906883</v>
+      </c>
+      <c r="E88">
+        <v>6875.20760936299</v>
+      </c>
+      <c r="F88">
+        <v>7817.967542484485</v>
+      </c>
+      <c r="G88">
+        <v>882.3</v>
+      </c>
+      <c r="H88">
+        <v>8147.9</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>61.24</v>
+      </c>
+      <c r="K88">
+        <v>17.7</v>
+      </c>
+      <c r="L88">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M88">
+        <v>1643.716063858362</v>
+      </c>
+      <c r="N88">
+        <v>-1600.176063858362</v>
+      </c>
+      <c r="O88">
+        <v>-544.059861711843</v>
+      </c>
+      <c r="P88">
+        <v>-1056.116202146519</v>
+      </c>
+      <c r="Q88">
+        <v>-1038.416202146519</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.7184439825665918</v>
+      </c>
+      <c r="T88">
+        <v>9.294747005578976</v>
+      </c>
+      <c r="U88">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V88">
+        <v>0.009006178333045494</v>
+      </c>
+      <c r="W88">
+        <v>0.2083549790922651</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.02648875980307497</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2817769247257708</v>
+      </c>
+      <c r="C89">
+        <v>-4016.717588594828</v>
+      </c>
+      <c r="D89">
+        <v>3009.856553220873</v>
+      </c>
+      <c r="E89">
+        <v>6966.114208694205</v>
+      </c>
+      <c r="F89">
+        <v>7908.874141815701</v>
+      </c>
+      <c r="G89">
+        <v>882.3</v>
+      </c>
+      <c r="H89">
+        <v>8147.9</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>61.24</v>
+      </c>
+      <c r="K89">
+        <v>17.7</v>
+      </c>
+      <c r="L89">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M89">
+        <v>1662.829041345087</v>
+      </c>
+      <c r="N89">
+        <v>-1619.289041345087</v>
+      </c>
+      <c r="O89">
+        <v>-550.5582740573296</v>
+      </c>
+      <c r="P89">
+        <v>-1068.730767287757</v>
+      </c>
+      <c r="Q89">
+        <v>-1051.030767287757</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.7729935196870987</v>
+      </c>
+      <c r="T89">
+        <v>10.00972754446967</v>
+      </c>
+      <c r="U89">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V89">
+        <v>0.008902659041861063</v>
+      </c>
+      <c r="W89">
+        <v>0.2083767438694804</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.02618429129959132</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2837864098728708</v>
+      </c>
+      <c r="C90">
+        <v>-4129.659020329586</v>
+      </c>
+      <c r="D90">
+        <v>2987.821720817329</v>
+      </c>
+      <c r="E90">
+        <v>7057.020808025421</v>
+      </c>
+      <c r="F90">
+        <v>7999.780741146916</v>
+      </c>
+      <c r="G90">
+        <v>882.3</v>
+      </c>
+      <c r="H90">
+        <v>8147.9</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>61.24</v>
+      </c>
+      <c r="K90">
+        <v>17.7</v>
+      </c>
+      <c r="L90">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M90">
+        <v>1681.942018831812</v>
+      </c>
+      <c r="N90">
+        <v>-1638.402018831812</v>
+      </c>
+      <c r="O90">
+        <v>-557.0566864028162</v>
+      </c>
+      <c r="P90">
+        <v>-1081.345332428996</v>
+      </c>
+      <c r="Q90">
+        <v>-1063.645332428996</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.8366346463276905</v>
+      </c>
+      <c r="T90">
+        <v>10.84387150650881</v>
+      </c>
+      <c r="U90">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V90">
+        <v>0.008801492461839915</v>
+      </c>
+      <c r="W90">
+        <v>0.2083980139926682</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.02588674253482326</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2857958950199709</v>
+      </c>
+      <c r="C91">
+        <v>-4242.280167609993</v>
+      </c>
+      <c r="D91">
+        <v>2966.107172868139</v>
+      </c>
+      <c r="E91">
+        <v>7147.927407356636</v>
+      </c>
+      <c r="F91">
+        <v>8090.687340478131</v>
+      </c>
+      <c r="G91">
+        <v>882.3</v>
+      </c>
+      <c r="H91">
+        <v>8147.9</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>61.24</v>
+      </c>
+      <c r="K91">
+        <v>17.7</v>
+      </c>
+      <c r="L91">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M91">
+        <v>1701.054996318537</v>
+      </c>
+      <c r="N91">
+        <v>-1657.514996318537</v>
+      </c>
+      <c r="O91">
+        <v>-563.5550987483027</v>
+      </c>
+      <c r="P91">
+        <v>-1093.959897570235</v>
+      </c>
+      <c r="Q91">
+        <v>-1076.259897570235</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.9118468869029351</v>
+      </c>
+      <c r="T91">
+        <v>11.82967800710052</v>
+      </c>
+      <c r="U91">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V91">
+        <v>0.008702599288111377</v>
+      </c>
+      <c r="W91">
+        <v>0.2084188061355595</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.02559588025915105</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2878053801670709</v>
+      </c>
+      <c r="C92">
+        <v>-4354.58796323052</v>
+      </c>
+      <c r="D92">
+        <v>2944.705976578826</v>
+      </c>
+      <c r="E92">
+        <v>7238.83400668785</v>
+      </c>
+      <c r="F92">
+        <v>8181.593939809345</v>
+      </c>
+      <c r="G92">
+        <v>882.3</v>
+      </c>
+      <c r="H92">
+        <v>8147.9</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>61.24</v>
+      </c>
+      <c r="K92">
+        <v>17.7</v>
+      </c>
+      <c r="L92">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M92">
+        <v>1720.167973805262</v>
+      </c>
+      <c r="N92">
+        <v>-1676.627973805262</v>
+      </c>
+      <c r="O92">
+        <v>-570.0535110937892</v>
+      </c>
+      <c r="P92">
+        <v>-1106.574462711473</v>
+      </c>
+      <c r="Q92">
+        <v>-1088.874462711473</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>1.002101575593229</v>
+      </c>
+      <c r="T92">
+        <v>13.01264580781057</v>
+      </c>
+      <c r="U92">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V92">
+        <v>0.008605903740465696</v>
+      </c>
+      <c r="W92">
+        <v>0.2084391362308311</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.02531148158960494</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2898148653141709</v>
+      </c>
+      <c r="C93">
+        <v>-4466.589141331686</v>
+      </c>
+      <c r="D93">
+        <v>2923.611397808876</v>
+      </c>
+      <c r="E93">
+        <v>7329.740606019066</v>
+      </c>
+      <c r="F93">
+        <v>8272.500539140561</v>
+      </c>
+      <c r="G93">
+        <v>882.3</v>
+      </c>
+      <c r="H93">
+        <v>8147.9</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>61.24</v>
+      </c>
+      <c r="K93">
+        <v>17.7</v>
+      </c>
+      <c r="L93">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M93">
+        <v>1739.280951291988</v>
+      </c>
+      <c r="N93">
+        <v>-1695.740951291988</v>
+      </c>
+      <c r="O93">
+        <v>-576.5519234392759</v>
+      </c>
+      <c r="P93">
+        <v>-1119.189027852712</v>
+      </c>
+      <c r="Q93">
+        <v>-1101.489027852712</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>1.112412861770254</v>
+      </c>
+      <c r="T93">
+        <v>14.45849534201174</v>
+      </c>
+      <c r="U93">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V93">
+        <v>0.008511333369691345</v>
+      </c>
+      <c r="W93">
+        <v>0.208459019510822</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.02503333344026859</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2918243504612709</v>
+      </c>
+      <c r="C94">
+        <v>-4578.290244464775</v>
+      </c>
+      <c r="D94">
+        <v>2902.816894007</v>
+      </c>
+      <c r="E94">
+        <v>7420.64720535028</v>
+      </c>
+      <c r="F94">
+        <v>8363.407138471775</v>
+      </c>
+      <c r="G94">
+        <v>882.3</v>
+      </c>
+      <c r="H94">
+        <v>8147.9</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>61.24</v>
+      </c>
+      <c r="K94">
+        <v>17.7</v>
+      </c>
+      <c r="L94">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M94">
+        <v>1758.393928778713</v>
+      </c>
+      <c r="N94">
+        <v>-1714.853928778713</v>
+      </c>
+      <c r="O94">
+        <v>-583.0503357847624</v>
+      </c>
+      <c r="P94">
+        <v>-1131.80359299395</v>
+      </c>
+      <c r="Q94">
+        <v>-1114.10359299395</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.250301969491536</v>
+      </c>
+      <c r="T94">
+        <v>16.26580725976322</v>
+      </c>
+      <c r="U94">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V94">
+        <v>0.008418818876542528</v>
+      </c>
+      <c r="W94">
+        <v>0.2084784705455957</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.02476123198983093</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.293833835608371</v>
+      </c>
+      <c r="C95">
+        <v>-4689.697630357231</v>
+      </c>
+      <c r="D95">
+        <v>2882.316107445761</v>
+      </c>
+      <c r="E95">
+        <v>7511.553804681496</v>
+      </c>
+      <c r="F95">
+        <v>8454.313737802991</v>
+      </c>
+      <c r="G95">
+        <v>882.3</v>
+      </c>
+      <c r="H95">
+        <v>8147.9</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>61.24</v>
+      </c>
+      <c r="K95">
+        <v>17.7</v>
+      </c>
+      <c r="L95">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M95">
+        <v>1777.506906265438</v>
+      </c>
+      <c r="N95">
+        <v>-1733.966906265438</v>
+      </c>
+      <c r="O95">
+        <v>-589.548748130249</v>
+      </c>
+      <c r="P95">
+        <v>-1144.418158135189</v>
+      </c>
+      <c r="Q95">
+        <v>-1126.718158135189</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.427587965133185</v>
+      </c>
+      <c r="T95">
+        <v>18.58949401115797</v>
+      </c>
+      <c r="U95">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V95">
+        <v>0.008328293942386154</v>
+      </c>
+      <c r="W95">
+        <v>0.2084975032785463</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.02449498218348867</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2958433207554709</v>
+      </c>
+      <c r="C96">
+        <v>-4800.817478393349</v>
+      </c>
+      <c r="D96">
+        <v>2862.102858740856</v>
+      </c>
+      <c r="E96">
+        <v>7602.460404012711</v>
+      </c>
+      <c r="F96">
+        <v>8545.220337134206</v>
+      </c>
+      <c r="G96">
+        <v>882.3</v>
+      </c>
+      <c r="H96">
+        <v>8147.9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>61.24</v>
+      </c>
+      <c r="K96">
+        <v>17.7</v>
+      </c>
+      <c r="L96">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M96">
+        <v>1796.619883752163</v>
+      </c>
+      <c r="N96">
+        <v>-1753.079883752163</v>
+      </c>
+      <c r="O96">
+        <v>-596.0471604757355</v>
+      </c>
+      <c r="P96">
+        <v>-1157.032723276428</v>
+      </c>
+      <c r="Q96">
+        <v>-1139.332723276427</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.663969292655382</v>
+      </c>
+      <c r="T96">
+        <v>21.68774301301763</v>
+      </c>
+      <c r="U96">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V96">
+        <v>0.008239695070658644</v>
+      </c>
+      <c r="W96">
+        <v>0.208516131059732</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.024234397266643</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.297852805902571</v>
+      </c>
+      <c r="C97">
+        <v>-4911.655795824211</v>
+      </c>
+      <c r="D97">
+        <v>2842.171140641209</v>
+      </c>
+      <c r="E97">
+        <v>7693.367003343925</v>
+      </c>
+      <c r="F97">
+        <v>8636.12693646542</v>
+      </c>
+      <c r="G97">
+        <v>882.3</v>
+      </c>
+      <c r="H97">
+        <v>8147.9</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>61.24</v>
+      </c>
+      <c r="K97">
+        <v>17.7</v>
+      </c>
+      <c r="L97">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M97">
+        <v>1815.732861238888</v>
+      </c>
+      <c r="N97">
+        <v>-1772.192861238888</v>
+      </c>
+      <c r="O97">
+        <v>-602.545572821222</v>
+      </c>
+      <c r="P97">
+        <v>-1169.647288417666</v>
+      </c>
+      <c r="Q97">
+        <v>-1151.947288417666</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.99490315118646</v>
+      </c>
+      <c r="T97">
+        <v>26.02529161562117</v>
+      </c>
+      <c r="U97">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V97">
+        <v>0.008152961438335922</v>
+      </c>
+      <c r="W97">
+        <v>0.2085343666771032</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.0239792983480468</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2998622910496709</v>
+      </c>
+      <c r="C98">
+        <v>-5022.218423719911</v>
+      </c>
+      <c r="D98">
+        <v>2822.515112076724</v>
+      </c>
+      <c r="E98">
+        <v>7784.273602675139</v>
+      </c>
+      <c r="F98">
+        <v>8727.033535796634</v>
+      </c>
+      <c r="G98">
+        <v>882.3</v>
+      </c>
+      <c r="H98">
+        <v>8147.9</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>61.24</v>
+      </c>
+      <c r="K98">
+        <v>17.7</v>
+      </c>
+      <c r="L98">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M98">
+        <v>1834.845838725613</v>
+      </c>
+      <c r="N98">
+        <v>-1791.305838725613</v>
+      </c>
+      <c r="O98">
+        <v>-609.0439851667085</v>
+      </c>
+      <c r="P98">
+        <v>-1182.261853558904</v>
+      </c>
+      <c r="Q98">
+        <v>-1164.561853558904</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.491303938983069</v>
+      </c>
+      <c r="T98">
+        <v>32.53161451952639</v>
+      </c>
+      <c r="U98">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V98">
+        <v>0.00806803475668659</v>
+      </c>
+      <c r="W98">
+        <v>0.2085522223857793</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.02372951399025469</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.301871776196771</v>
+      </c>
+      <c r="C99">
+        <v>-5132.511042676509</v>
+      </c>
+      <c r="D99">
+        <v>2803.129092451342</v>
+      </c>
+      <c r="E99">
+        <v>7875.180202006355</v>
+      </c>
+      <c r="F99">
+        <v>8817.94013512785</v>
+      </c>
+      <c r="G99">
+        <v>882.3</v>
+      </c>
+      <c r="H99">
+        <v>8147.9</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>61.24</v>
+      </c>
+      <c r="K99">
+        <v>17.7</v>
+      </c>
+      <c r="L99">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M99">
+        <v>1853.958816212338</v>
+      </c>
+      <c r="N99">
+        <v>-1810.418816212338</v>
+      </c>
+      <c r="O99">
+        <v>-615.5423975121952</v>
+      </c>
+      <c r="P99">
+        <v>-1194.876418700143</v>
+      </c>
+      <c r="Q99">
+        <v>-1177.176418700143</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>3.318638585310759</v>
+      </c>
+      <c r="T99">
+        <v>43.37548602603519</v>
+      </c>
+      <c r="U99">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V99">
+        <v>0.007984859140638274</v>
+      </c>
+      <c r="W99">
+        <v>0.2085697099355135</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.0234848798254067</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.3038812613438709</v>
+      </c>
+      <c r="C100">
+        <v>-5242.539178289386</v>
+      </c>
+      <c r="D100">
+        <v>2784.007556169679</v>
+      </c>
+      <c r="E100">
+        <v>7966.086801337569</v>
+      </c>
+      <c r="F100">
+        <v>8908.846734459064</v>
+      </c>
+      <c r="G100">
+        <v>882.3</v>
+      </c>
+      <c r="H100">
+        <v>8147.9</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>61.24</v>
+      </c>
+      <c r="K100">
+        <v>17.7</v>
+      </c>
+      <c r="L100">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M100">
+        <v>1873.071793699063</v>
+      </c>
+      <c r="N100">
+        <v>-1829.531793699063</v>
+      </c>
+      <c r="O100">
+        <v>-622.0408098576817</v>
+      </c>
+      <c r="P100">
+        <v>-1207.490983841382</v>
+      </c>
+      <c r="Q100">
+        <v>-1189.790983841382</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.973307877966138</v>
+      </c>
+      <c r="T100">
+        <v>65.06322903905279</v>
+      </c>
+      <c r="U100">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V100">
+        <v>0.007903380986141966</v>
+      </c>
+      <c r="W100">
+        <v>0.2085868405964777</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.02324523819453517</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.3058907464909709</v>
+      </c>
+      <c r="C101">
+        <v>-5352.308206404122</v>
+      </c>
+      <c r="D101">
+        <v>2765.145127386159</v>
+      </c>
+      <c r="E101">
+        <v>8056.993400668785</v>
+      </c>
+      <c r="F101">
+        <v>8999.753333790281</v>
+      </c>
+      <c r="G101">
+        <v>882.3</v>
+      </c>
+      <c r="H101">
+        <v>8147.9</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>61.24</v>
+      </c>
+      <c r="K101">
+        <v>17.7</v>
+      </c>
+      <c r="L101">
+        <v>43.54000000000001</v>
+      </c>
+      <c r="M101">
+        <v>1892.184771185789</v>
+      </c>
+      <c r="N101">
+        <v>-1848.644771185789</v>
+      </c>
+      <c r="O101">
+        <v>-628.5392222031683</v>
+      </c>
+      <c r="P101">
+        <v>-1220.105548982621</v>
+      </c>
+      <c r="Q101">
+        <v>-1202.405548982621</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>9.937315755932277</v>
+      </c>
+      <c r="T101">
+        <v>130.1264580781056</v>
+      </c>
+      <c r="U101">
+        <v>0.2102485147100013</v>
+      </c>
+      <c r="V101">
+        <v>0.007823548854968812</v>
+      </c>
+      <c r="W101">
+        <v>0.2086036251834829</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.0230104378087318</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
